--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10103_TOP_Menu.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10103_TOP_Menu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{D389DF13-5C05-47BB-A4EA-BAE4DC7AD7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B718E482-F490-4EA7-AAEA-6167F40C8CF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="445" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" state="hidden" r:id="rId1"/>
@@ -42,35 +42,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{829784EB-45AE-4BA7-96C9-707F2B9CF59B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
@@ -102,118 +73,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{19522835-EC67-4F4B-858D-5DFB5986C0A0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{A0C9FB40-D815-4AFF-9467-66D79454DBDC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{9AF3E194-4475-4ED3-9642-21CFEAAD39E9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-configurationをstructureに置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{794072B5-11B0-442C-9918-9B36EEAFA8EA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「画面構成」は「Screen structure」としてください。
-他のセルについても同様に「structure」に置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -224,35 +83,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EE9008F7-45B9-4F6F-881F-BB515EB57E5E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。
-他にも多数ありますので
-あわせて修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -271,122 +101,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{23B243BB-37BA-4E0D-87B4-597D0E607D31}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「Back event」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{DAAFB8EB-C436-415E-A9FF-0ADEFF51A738}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現のため、
-「scrutiny」ではなく
-「validate、validation」
-で統一していただけますでしょうか。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{7D7807BD-47EA-4E8C-BBDD-D1FAF18BC498}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{F904D1F5-0F4F-42A0-87B4-E7C9297590D1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「2重サブミット」は
-「dupulicate form submission」としてください。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="415">
   <si>
     <t>対象外</t>
   </si>
@@ -1114,9 +834,6 @@
   </si>
   <si>
     <t>Screen unit</t>
-  </si>
-  <si>
-    <t>Screen configuration</t>
   </si>
   <si>
     <t>Configuration and arrangement of the entire screen</t>
@@ -1701,7 +1418,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -1810,21 +1527,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5201,6 +4903,84 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5310,84 +5090,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="24" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6208,9 +5910,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="6.58203125" style="1"/>
+    <col min="1" max="16384" width="6.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -6296,7 +5998,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="19">
+    <row r="32" spans="6:11" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -6304,12 +6006,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="19">
+    <row r="33" spans="6:10" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="19">
+    <row r="34" spans="6:10" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -6818,63 +6520,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.58203125" style="23"/>
+    <col min="1" max="16384" width="3.625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="481" t="s">
+      <c r="A1" s="507" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="482"/>
-      <c r="C1" s="482"/>
-      <c r="D1" s="483"/>
-      <c r="E1" s="490" t="s">
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="516" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="485"/>
-      <c r="G1" s="485"/>
-      <c r="H1" s="485"/>
-      <c r="I1" s="485"/>
-      <c r="J1" s="485"/>
-      <c r="K1" s="485"/>
-      <c r="L1" s="485"/>
-      <c r="M1" s="485"/>
-      <c r="N1" s="486"/>
-      <c r="O1" s="491" t="s">
+      <c r="F1" s="511"/>
+      <c r="G1" s="511"/>
+      <c r="H1" s="511"/>
+      <c r="I1" s="511"/>
+      <c r="J1" s="511"/>
+      <c r="K1" s="511"/>
+      <c r="L1" s="511"/>
+      <c r="M1" s="511"/>
+      <c r="N1" s="512"/>
+      <c r="O1" s="517" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="492"/>
-      <c r="Q1" s="492"/>
-      <c r="R1" s="493"/>
-      <c r="S1" s="500" t="s">
+      <c r="P1" s="518"/>
+      <c r="Q1" s="518"/>
+      <c r="R1" s="519"/>
+      <c r="S1" s="526" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="501"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="501"/>
-      <c r="W1" s="501"/>
-      <c r="X1" s="501"/>
-      <c r="Y1" s="501"/>
-      <c r="Z1" s="502"/>
-      <c r="AA1" s="481" t="s">
+      <c r="T1" s="527"/>
+      <c r="U1" s="527"/>
+      <c r="V1" s="527"/>
+      <c r="W1" s="527"/>
+      <c r="X1" s="527"/>
+      <c r="Y1" s="527"/>
+      <c r="Z1" s="528"/>
+      <c r="AA1" s="507" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="483"/>
-      <c r="AC1" s="509" t="str">
+      <c r="AB1" s="509"/>
+      <c r="AC1" s="535" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="510"/>
-      <c r="AE1" s="510"/>
-      <c r="AF1" s="511"/>
-      <c r="AG1" s="475">
+      <c r="AD1" s="536"/>
+      <c r="AE1" s="536"/>
+      <c r="AF1" s="537"/>
+      <c r="AG1" s="501">
         <f>IF(D8="","",D8)</f>
         <v>43657</v>
       </c>
-      <c r="AH1" s="476"/>
-      <c r="AI1" s="477"/>
+      <c r="AH1" s="502"/>
+      <c r="AI1" s="503"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6882,53 +6584,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="481" t="s">
+      <c r="A2" s="507" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="482"/>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="484" t="s">
+      <c r="B2" s="508"/>
+      <c r="C2" s="508"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="510" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="485"/>
-      <c r="I2" s="485"/>
-      <c r="J2" s="485"/>
-      <c r="K2" s="485"/>
-      <c r="L2" s="485"/>
-      <c r="M2" s="485"/>
-      <c r="N2" s="486"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="495"/>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="503"/>
-      <c r="T2" s="504"/>
-      <c r="U2" s="504"/>
-      <c r="V2" s="504"/>
-      <c r="W2" s="504"/>
-      <c r="X2" s="504"/>
-      <c r="Y2" s="504"/>
-      <c r="Z2" s="505"/>
-      <c r="AA2" s="481" t="s">
+      <c r="F2" s="511"/>
+      <c r="G2" s="511"/>
+      <c r="H2" s="511"/>
+      <c r="I2" s="511"/>
+      <c r="J2" s="511"/>
+      <c r="K2" s="511"/>
+      <c r="L2" s="511"/>
+      <c r="M2" s="511"/>
+      <c r="N2" s="512"/>
+      <c r="O2" s="520"/>
+      <c r="P2" s="521"/>
+      <c r="Q2" s="521"/>
+      <c r="R2" s="522"/>
+      <c r="S2" s="529"/>
+      <c r="T2" s="530"/>
+      <c r="U2" s="530"/>
+      <c r="V2" s="530"/>
+      <c r="W2" s="530"/>
+      <c r="X2" s="530"/>
+      <c r="Y2" s="530"/>
+      <c r="Z2" s="531"/>
+      <c r="AA2" s="507" t="s">
         <v>112</v>
       </c>
-      <c r="AB2" s="483"/>
-      <c r="AC2" s="487" t="str">
+      <c r="AB2" s="509"/>
+      <c r="AC2" s="513" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="488"/>
-      <c r="AE2" s="488"/>
-      <c r="AF2" s="489"/>
-      <c r="AG2" s="475" t="str">
+      <c r="AD2" s="514"/>
+      <c r="AE2" s="514"/>
+      <c r="AF2" s="515"/>
+      <c r="AG2" s="501" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="476"/>
-      <c r="AI2" s="477"/>
+      <c r="AH2" s="502"/>
+      <c r="AI2" s="503"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6936,45 +6638,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="481" t="s">
+      <c r="A3" s="507" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="482"/>
-      <c r="C3" s="482"/>
-      <c r="D3" s="483"/>
-      <c r="E3" s="484" t="s">
+      <c r="B3" s="508"/>
+      <c r="C3" s="508"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="510" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="485"/>
-      <c r="G3" s="485"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="485"/>
-      <c r="K3" s="485"/>
-      <c r="L3" s="485"/>
-      <c r="M3" s="485"/>
-      <c r="N3" s="486"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="498"/>
-      <c r="Q3" s="498"/>
-      <c r="R3" s="499"/>
-      <c r="S3" s="506"/>
-      <c r="T3" s="507"/>
-      <c r="U3" s="507"/>
-      <c r="V3" s="507"/>
-      <c r="W3" s="507"/>
-      <c r="X3" s="507"/>
-      <c r="Y3" s="507"/>
-      <c r="Z3" s="508"/>
-      <c r="AA3" s="481"/>
-      <c r="AB3" s="483"/>
-      <c r="AC3" s="509"/>
-      <c r="AD3" s="510"/>
-      <c r="AE3" s="510"/>
-      <c r="AF3" s="511"/>
-      <c r="AG3" s="475"/>
-      <c r="AH3" s="476"/>
-      <c r="AI3" s="477"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="511"/>
+      <c r="H3" s="511"/>
+      <c r="I3" s="511"/>
+      <c r="J3" s="511"/>
+      <c r="K3" s="511"/>
+      <c r="L3" s="511"/>
+      <c r="M3" s="511"/>
+      <c r="N3" s="512"/>
+      <c r="O3" s="523"/>
+      <c r="P3" s="524"/>
+      <c r="Q3" s="524"/>
+      <c r="R3" s="525"/>
+      <c r="S3" s="532"/>
+      <c r="T3" s="533"/>
+      <c r="U3" s="533"/>
+      <c r="V3" s="533"/>
+      <c r="W3" s="533"/>
+      <c r="X3" s="533"/>
+      <c r="Y3" s="533"/>
+      <c r="Z3" s="534"/>
+      <c r="AA3" s="507"/>
+      <c r="AB3" s="509"/>
+      <c r="AC3" s="535"/>
+      <c r="AD3" s="536"/>
+      <c r="AE3" s="536"/>
+      <c r="AF3" s="537"/>
+      <c r="AG3" s="501"/>
+      <c r="AH3" s="502"/>
+      <c r="AI3" s="503"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7011,1190 +6713,1034 @@
       <c r="A7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="478" t="s">
+      <c r="B7" s="504" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="479"/>
-      <c r="D7" s="478" t="s">
+      <c r="C7" s="505"/>
+      <c r="D7" s="504" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="480"/>
-      <c r="F7" s="479"/>
-      <c r="G7" s="478" t="s">
+      <c r="E7" s="506"/>
+      <c r="F7" s="505"/>
+      <c r="G7" s="504" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="480"/>
-      <c r="I7" s="479"/>
-      <c r="J7" s="478" t="s">
+      <c r="H7" s="506"/>
+      <c r="I7" s="505"/>
+      <c r="J7" s="504" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="480"/>
-      <c r="L7" s="480"/>
-      <c r="M7" s="480"/>
-      <c r="N7" s="480"/>
-      <c r="O7" s="480"/>
-      <c r="P7" s="479"/>
-      <c r="Q7" s="478" t="s">
+      <c r="K7" s="506"/>
+      <c r="L7" s="506"/>
+      <c r="M7" s="506"/>
+      <c r="N7" s="506"/>
+      <c r="O7" s="506"/>
+      <c r="P7" s="505"/>
+      <c r="Q7" s="504" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="480"/>
-      <c r="S7" s="480"/>
-      <c r="T7" s="480"/>
-      <c r="U7" s="480"/>
-      <c r="V7" s="480"/>
-      <c r="W7" s="480"/>
-      <c r="X7" s="480"/>
-      <c r="Y7" s="480"/>
-      <c r="Z7" s="480"/>
-      <c r="AA7" s="480"/>
-      <c r="AB7" s="480"/>
-      <c r="AC7" s="480"/>
-      <c r="AD7" s="480"/>
-      <c r="AE7" s="479"/>
-      <c r="AF7" s="478" t="s">
+      <c r="R7" s="506"/>
+      <c r="S7" s="506"/>
+      <c r="T7" s="506"/>
+      <c r="U7" s="506"/>
+      <c r="V7" s="506"/>
+      <c r="W7" s="506"/>
+      <c r="X7" s="506"/>
+      <c r="Y7" s="506"/>
+      <c r="Z7" s="506"/>
+      <c r="AA7" s="506"/>
+      <c r="AB7" s="506"/>
+      <c r="AC7" s="506"/>
+      <c r="AD7" s="506"/>
+      <c r="AE7" s="505"/>
+      <c r="AF7" s="504" t="s">
         <v>122</v>
       </c>
-      <c r="AG7" s="480"/>
-      <c r="AH7" s="480"/>
-      <c r="AI7" s="479"/>
+      <c r="AG7" s="506"/>
+      <c r="AH7" s="506"/>
+      <c r="AI7" s="505"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="524" t="s">
+      <c r="B8" s="488" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="525"/>
-      <c r="D8" s="526">
+      <c r="C8" s="489"/>
+      <c r="D8" s="490">
         <v>43657</v>
       </c>
-      <c r="E8" s="527"/>
-      <c r="F8" s="528"/>
-      <c r="G8" s="529" t="s">
+      <c r="E8" s="491"/>
+      <c r="F8" s="492"/>
+      <c r="G8" s="493" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="530"/>
-      <c r="I8" s="525"/>
-      <c r="J8" s="531" t="s">
+      <c r="H8" s="494"/>
+      <c r="I8" s="489"/>
+      <c r="J8" s="495" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="532"/>
-      <c r="L8" s="532"/>
-      <c r="M8" s="532"/>
-      <c r="N8" s="532"/>
-      <c r="O8" s="532"/>
-      <c r="P8" s="533"/>
-      <c r="Q8" s="534" t="s">
+      <c r="K8" s="496"/>
+      <c r="L8" s="496"/>
+      <c r="M8" s="496"/>
+      <c r="N8" s="496"/>
+      <c r="O8" s="496"/>
+      <c r="P8" s="497"/>
+      <c r="Q8" s="498" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="535"/>
-      <c r="S8" s="535"/>
-      <c r="T8" s="535"/>
-      <c r="U8" s="535"/>
-      <c r="V8" s="535"/>
-      <c r="W8" s="535"/>
-      <c r="X8" s="535"/>
-      <c r="Y8" s="535"/>
-      <c r="Z8" s="535"/>
-      <c r="AA8" s="535"/>
-      <c r="AB8" s="535"/>
-      <c r="AC8" s="535"/>
-      <c r="AD8" s="535"/>
-      <c r="AE8" s="536"/>
-      <c r="AF8" s="531" t="s">
+      <c r="R8" s="499"/>
+      <c r="S8" s="499"/>
+      <c r="T8" s="499"/>
+      <c r="U8" s="499"/>
+      <c r="V8" s="499"/>
+      <c r="W8" s="499"/>
+      <c r="X8" s="499"/>
+      <c r="Y8" s="499"/>
+      <c r="Z8" s="499"/>
+      <c r="AA8" s="499"/>
+      <c r="AB8" s="499"/>
+      <c r="AC8" s="499"/>
+      <c r="AD8" s="499"/>
+      <c r="AE8" s="500"/>
+      <c r="AF8" s="495" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" s="532"/>
-      <c r="AH8" s="532"/>
-      <c r="AI8" s="533"/>
+      <c r="AG8" s="496"/>
+      <c r="AH8" s="496"/>
+      <c r="AI8" s="497"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="512"/>
-      <c r="C9" s="513"/>
-      <c r="D9" s="514"/>
-      <c r="E9" s="515"/>
-      <c r="F9" s="516"/>
-      <c r="G9" s="514"/>
-      <c r="H9" s="517"/>
-      <c r="I9" s="513"/>
-      <c r="J9" s="518"/>
-      <c r="K9" s="519"/>
-      <c r="L9" s="519"/>
-      <c r="M9" s="519"/>
-      <c r="N9" s="519"/>
-      <c r="O9" s="519"/>
-      <c r="P9" s="520"/>
-      <c r="Q9" s="521"/>
-      <c r="R9" s="522"/>
-      <c r="S9" s="522"/>
-      <c r="T9" s="522"/>
-      <c r="U9" s="522"/>
-      <c r="V9" s="522"/>
-      <c r="W9" s="522"/>
-      <c r="X9" s="522"/>
-      <c r="Y9" s="522"/>
-      <c r="Z9" s="522"/>
-      <c r="AA9" s="522"/>
-      <c r="AB9" s="522"/>
-      <c r="AC9" s="522"/>
-      <c r="AD9" s="522"/>
-      <c r="AE9" s="523"/>
-      <c r="AF9" s="518"/>
-      <c r="AG9" s="519"/>
-      <c r="AH9" s="519"/>
-      <c r="AI9" s="520"/>
+      <c r="B9" s="475"/>
+      <c r="C9" s="476"/>
+      <c r="D9" s="477"/>
+      <c r="E9" s="478"/>
+      <c r="F9" s="479"/>
+      <c r="G9" s="477"/>
+      <c r="H9" s="480"/>
+      <c r="I9" s="476"/>
+      <c r="J9" s="481"/>
+      <c r="K9" s="482"/>
+      <c r="L9" s="482"/>
+      <c r="M9" s="482"/>
+      <c r="N9" s="482"/>
+      <c r="O9" s="482"/>
+      <c r="P9" s="483"/>
+      <c r="Q9" s="484"/>
+      <c r="R9" s="485"/>
+      <c r="S9" s="485"/>
+      <c r="T9" s="485"/>
+      <c r="U9" s="485"/>
+      <c r="V9" s="485"/>
+      <c r="W9" s="485"/>
+      <c r="X9" s="485"/>
+      <c r="Y9" s="485"/>
+      <c r="Z9" s="485"/>
+      <c r="AA9" s="485"/>
+      <c r="AB9" s="485"/>
+      <c r="AC9" s="485"/>
+      <c r="AD9" s="485"/>
+      <c r="AE9" s="486"/>
+      <c r="AF9" s="481"/>
+      <c r="AG9" s="482"/>
+      <c r="AH9" s="482"/>
+      <c r="AI9" s="483"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="512"/>
-      <c r="C10" s="513"/>
-      <c r="D10" s="514"/>
-      <c r="E10" s="515"/>
-      <c r="F10" s="516"/>
-      <c r="G10" s="512"/>
-      <c r="H10" s="517"/>
-      <c r="I10" s="513"/>
-      <c r="J10" s="518"/>
-      <c r="K10" s="519"/>
-      <c r="L10" s="519"/>
-      <c r="M10" s="519"/>
-      <c r="N10" s="519"/>
-      <c r="O10" s="519"/>
-      <c r="P10" s="520"/>
-      <c r="Q10" s="521"/>
-      <c r="R10" s="522"/>
-      <c r="S10" s="522"/>
-      <c r="T10" s="522"/>
-      <c r="U10" s="522"/>
-      <c r="V10" s="522"/>
-      <c r="W10" s="522"/>
-      <c r="X10" s="522"/>
-      <c r="Y10" s="522"/>
-      <c r="Z10" s="522"/>
-      <c r="AA10" s="522"/>
-      <c r="AB10" s="522"/>
-      <c r="AC10" s="522"/>
-      <c r="AD10" s="522"/>
-      <c r="AE10" s="523"/>
-      <c r="AF10" s="518"/>
-      <c r="AG10" s="519"/>
-      <c r="AH10" s="519"/>
-      <c r="AI10" s="520"/>
+      <c r="B10" s="475"/>
+      <c r="C10" s="476"/>
+      <c r="D10" s="477"/>
+      <c r="E10" s="478"/>
+      <c r="F10" s="479"/>
+      <c r="G10" s="475"/>
+      <c r="H10" s="480"/>
+      <c r="I10" s="476"/>
+      <c r="J10" s="481"/>
+      <c r="K10" s="482"/>
+      <c r="L10" s="482"/>
+      <c r="M10" s="482"/>
+      <c r="N10" s="482"/>
+      <c r="O10" s="482"/>
+      <c r="P10" s="483"/>
+      <c r="Q10" s="484"/>
+      <c r="R10" s="485"/>
+      <c r="S10" s="485"/>
+      <c r="T10" s="485"/>
+      <c r="U10" s="485"/>
+      <c r="V10" s="485"/>
+      <c r="W10" s="485"/>
+      <c r="X10" s="485"/>
+      <c r="Y10" s="485"/>
+      <c r="Z10" s="485"/>
+      <c r="AA10" s="485"/>
+      <c r="AB10" s="485"/>
+      <c r="AC10" s="485"/>
+      <c r="AD10" s="485"/>
+      <c r="AE10" s="486"/>
+      <c r="AF10" s="481"/>
+      <c r="AG10" s="482"/>
+      <c r="AH10" s="482"/>
+      <c r="AI10" s="483"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="512"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="515"/>
-      <c r="F11" s="516"/>
-      <c r="G11" s="512"/>
-      <c r="H11" s="517"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="518"/>
-      <c r="K11" s="519"/>
-      <c r="L11" s="519"/>
-      <c r="M11" s="519"/>
-      <c r="N11" s="519"/>
-      <c r="O11" s="519"/>
-      <c r="P11" s="520"/>
-      <c r="Q11" s="521"/>
-      <c r="R11" s="522"/>
-      <c r="S11" s="522"/>
-      <c r="T11" s="522"/>
-      <c r="U11" s="522"/>
-      <c r="V11" s="522"/>
-      <c r="W11" s="522"/>
-      <c r="X11" s="522"/>
-      <c r="Y11" s="522"/>
-      <c r="Z11" s="522"/>
-      <c r="AA11" s="522"/>
-      <c r="AB11" s="522"/>
-      <c r="AC11" s="522"/>
-      <c r="AD11" s="522"/>
-      <c r="AE11" s="523"/>
-      <c r="AF11" s="518"/>
-      <c r="AG11" s="519"/>
-      <c r="AH11" s="519"/>
-      <c r="AI11" s="520"/>
+      <c r="B11" s="475"/>
+      <c r="C11" s="476"/>
+      <c r="D11" s="477"/>
+      <c r="E11" s="478"/>
+      <c r="F11" s="479"/>
+      <c r="G11" s="475"/>
+      <c r="H11" s="480"/>
+      <c r="I11" s="476"/>
+      <c r="J11" s="481"/>
+      <c r="K11" s="482"/>
+      <c r="L11" s="482"/>
+      <c r="M11" s="482"/>
+      <c r="N11" s="482"/>
+      <c r="O11" s="482"/>
+      <c r="P11" s="483"/>
+      <c r="Q11" s="484"/>
+      <c r="R11" s="485"/>
+      <c r="S11" s="485"/>
+      <c r="T11" s="485"/>
+      <c r="U11" s="485"/>
+      <c r="V11" s="485"/>
+      <c r="W11" s="485"/>
+      <c r="X11" s="485"/>
+      <c r="Y11" s="485"/>
+      <c r="Z11" s="485"/>
+      <c r="AA11" s="485"/>
+      <c r="AB11" s="485"/>
+      <c r="AC11" s="485"/>
+      <c r="AD11" s="485"/>
+      <c r="AE11" s="486"/>
+      <c r="AF11" s="481"/>
+      <c r="AG11" s="482"/>
+      <c r="AH11" s="482"/>
+      <c r="AI11" s="483"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="512"/>
-      <c r="C12" s="513"/>
-      <c r="D12" s="514"/>
-      <c r="E12" s="515"/>
-      <c r="F12" s="516"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="517"/>
-      <c r="I12" s="513"/>
-      <c r="J12" s="518"/>
-      <c r="K12" s="519"/>
-      <c r="L12" s="519"/>
-      <c r="M12" s="519"/>
-      <c r="N12" s="519"/>
-      <c r="O12" s="519"/>
-      <c r="P12" s="520"/>
-      <c r="Q12" s="521"/>
-      <c r="R12" s="522"/>
-      <c r="S12" s="522"/>
-      <c r="T12" s="522"/>
-      <c r="U12" s="522"/>
-      <c r="V12" s="522"/>
-      <c r="W12" s="522"/>
-      <c r="X12" s="522"/>
-      <c r="Y12" s="522"/>
-      <c r="Z12" s="522"/>
-      <c r="AA12" s="522"/>
-      <c r="AB12" s="522"/>
-      <c r="AC12" s="522"/>
-      <c r="AD12" s="522"/>
-      <c r="AE12" s="523"/>
-      <c r="AF12" s="518"/>
-      <c r="AG12" s="519"/>
-      <c r="AH12" s="519"/>
-      <c r="AI12" s="520"/>
+      <c r="B12" s="475"/>
+      <c r="C12" s="476"/>
+      <c r="D12" s="477"/>
+      <c r="E12" s="478"/>
+      <c r="F12" s="479"/>
+      <c r="G12" s="475"/>
+      <c r="H12" s="480"/>
+      <c r="I12" s="476"/>
+      <c r="J12" s="481"/>
+      <c r="K12" s="482"/>
+      <c r="L12" s="482"/>
+      <c r="M12" s="482"/>
+      <c r="N12" s="482"/>
+      <c r="O12" s="482"/>
+      <c r="P12" s="483"/>
+      <c r="Q12" s="484"/>
+      <c r="R12" s="485"/>
+      <c r="S12" s="485"/>
+      <c r="T12" s="485"/>
+      <c r="U12" s="485"/>
+      <c r="V12" s="485"/>
+      <c r="W12" s="485"/>
+      <c r="X12" s="485"/>
+      <c r="Y12" s="485"/>
+      <c r="Z12" s="485"/>
+      <c r="AA12" s="485"/>
+      <c r="AB12" s="485"/>
+      <c r="AC12" s="485"/>
+      <c r="AD12" s="485"/>
+      <c r="AE12" s="486"/>
+      <c r="AF12" s="481"/>
+      <c r="AG12" s="482"/>
+      <c r="AH12" s="482"/>
+      <c r="AI12" s="483"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="512"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="514"/>
-      <c r="E13" s="515"/>
-      <c r="F13" s="516"/>
-      <c r="G13" s="512"/>
-      <c r="H13" s="517"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="518"/>
-      <c r="K13" s="519"/>
-      <c r="L13" s="519"/>
-      <c r="M13" s="519"/>
-      <c r="N13" s="519"/>
-      <c r="O13" s="519"/>
-      <c r="P13" s="520"/>
-      <c r="Q13" s="521"/>
-      <c r="R13" s="522"/>
-      <c r="S13" s="522"/>
-      <c r="T13" s="522"/>
-      <c r="U13" s="522"/>
-      <c r="V13" s="522"/>
-      <c r="W13" s="522"/>
-      <c r="X13" s="522"/>
-      <c r="Y13" s="522"/>
-      <c r="Z13" s="522"/>
-      <c r="AA13" s="522"/>
-      <c r="AB13" s="522"/>
-      <c r="AC13" s="522"/>
-      <c r="AD13" s="522"/>
-      <c r="AE13" s="523"/>
-      <c r="AF13" s="518"/>
-      <c r="AG13" s="519"/>
-      <c r="AH13" s="519"/>
-      <c r="AI13" s="520"/>
+      <c r="B13" s="475"/>
+      <c r="C13" s="476"/>
+      <c r="D13" s="477"/>
+      <c r="E13" s="478"/>
+      <c r="F13" s="479"/>
+      <c r="G13" s="475"/>
+      <c r="H13" s="480"/>
+      <c r="I13" s="476"/>
+      <c r="J13" s="481"/>
+      <c r="K13" s="482"/>
+      <c r="L13" s="482"/>
+      <c r="M13" s="482"/>
+      <c r="N13" s="482"/>
+      <c r="O13" s="482"/>
+      <c r="P13" s="483"/>
+      <c r="Q13" s="484"/>
+      <c r="R13" s="485"/>
+      <c r="S13" s="485"/>
+      <c r="T13" s="485"/>
+      <c r="U13" s="485"/>
+      <c r="V13" s="485"/>
+      <c r="W13" s="485"/>
+      <c r="X13" s="485"/>
+      <c r="Y13" s="485"/>
+      <c r="Z13" s="485"/>
+      <c r="AA13" s="485"/>
+      <c r="AB13" s="485"/>
+      <c r="AC13" s="485"/>
+      <c r="AD13" s="485"/>
+      <c r="AE13" s="486"/>
+      <c r="AF13" s="481"/>
+      <c r="AG13" s="482"/>
+      <c r="AH13" s="482"/>
+      <c r="AI13" s="483"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="512"/>
-      <c r="C14" s="513"/>
-      <c r="D14" s="514"/>
-      <c r="E14" s="515"/>
-      <c r="F14" s="516"/>
-      <c r="G14" s="512"/>
-      <c r="H14" s="517"/>
-      <c r="I14" s="513"/>
-      <c r="J14" s="518"/>
-      <c r="K14" s="519"/>
-      <c r="L14" s="519"/>
-      <c r="M14" s="519"/>
-      <c r="N14" s="519"/>
-      <c r="O14" s="519"/>
-      <c r="P14" s="520"/>
-      <c r="Q14" s="521"/>
-      <c r="R14" s="522"/>
-      <c r="S14" s="522"/>
-      <c r="T14" s="522"/>
-      <c r="U14" s="522"/>
-      <c r="V14" s="522"/>
-      <c r="W14" s="522"/>
-      <c r="X14" s="522"/>
-      <c r="Y14" s="522"/>
-      <c r="Z14" s="522"/>
-      <c r="AA14" s="522"/>
-      <c r="AB14" s="522"/>
-      <c r="AC14" s="522"/>
-      <c r="AD14" s="522"/>
-      <c r="AE14" s="523"/>
-      <c r="AF14" s="518"/>
-      <c r="AG14" s="519"/>
-      <c r="AH14" s="519"/>
-      <c r="AI14" s="520"/>
+      <c r="B14" s="475"/>
+      <c r="C14" s="476"/>
+      <c r="D14" s="477"/>
+      <c r="E14" s="478"/>
+      <c r="F14" s="479"/>
+      <c r="G14" s="475"/>
+      <c r="H14" s="480"/>
+      <c r="I14" s="476"/>
+      <c r="J14" s="481"/>
+      <c r="K14" s="482"/>
+      <c r="L14" s="482"/>
+      <c r="M14" s="482"/>
+      <c r="N14" s="482"/>
+      <c r="O14" s="482"/>
+      <c r="P14" s="483"/>
+      <c r="Q14" s="484"/>
+      <c r="R14" s="485"/>
+      <c r="S14" s="485"/>
+      <c r="T14" s="485"/>
+      <c r="U14" s="485"/>
+      <c r="V14" s="485"/>
+      <c r="W14" s="485"/>
+      <c r="X14" s="485"/>
+      <c r="Y14" s="485"/>
+      <c r="Z14" s="485"/>
+      <c r="AA14" s="485"/>
+      <c r="AB14" s="485"/>
+      <c r="AC14" s="485"/>
+      <c r="AD14" s="485"/>
+      <c r="AE14" s="486"/>
+      <c r="AF14" s="481"/>
+      <c r="AG14" s="482"/>
+      <c r="AH14" s="482"/>
+      <c r="AI14" s="483"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="512"/>
-      <c r="C15" s="513"/>
-      <c r="D15" s="514"/>
-      <c r="E15" s="515"/>
-      <c r="F15" s="516"/>
-      <c r="G15" s="512"/>
-      <c r="H15" s="517"/>
-      <c r="I15" s="513"/>
-      <c r="J15" s="518"/>
-      <c r="K15" s="519"/>
-      <c r="L15" s="519"/>
-      <c r="M15" s="519"/>
-      <c r="N15" s="519"/>
-      <c r="O15" s="519"/>
-      <c r="P15" s="520"/>
-      <c r="Q15" s="521"/>
-      <c r="R15" s="522"/>
-      <c r="S15" s="522"/>
-      <c r="T15" s="522"/>
-      <c r="U15" s="522"/>
-      <c r="V15" s="522"/>
-      <c r="W15" s="522"/>
-      <c r="X15" s="522"/>
-      <c r="Y15" s="522"/>
-      <c r="Z15" s="522"/>
-      <c r="AA15" s="522"/>
-      <c r="AB15" s="522"/>
-      <c r="AC15" s="522"/>
-      <c r="AD15" s="522"/>
-      <c r="AE15" s="523"/>
-      <c r="AF15" s="518"/>
-      <c r="AG15" s="519"/>
-      <c r="AH15" s="519"/>
-      <c r="AI15" s="520"/>
+      <c r="B15" s="475"/>
+      <c r="C15" s="476"/>
+      <c r="D15" s="477"/>
+      <c r="E15" s="478"/>
+      <c r="F15" s="479"/>
+      <c r="G15" s="475"/>
+      <c r="H15" s="480"/>
+      <c r="I15" s="476"/>
+      <c r="J15" s="481"/>
+      <c r="K15" s="482"/>
+      <c r="L15" s="482"/>
+      <c r="M15" s="482"/>
+      <c r="N15" s="482"/>
+      <c r="O15" s="482"/>
+      <c r="P15" s="483"/>
+      <c r="Q15" s="484"/>
+      <c r="R15" s="485"/>
+      <c r="S15" s="485"/>
+      <c r="T15" s="485"/>
+      <c r="U15" s="485"/>
+      <c r="V15" s="485"/>
+      <c r="W15" s="485"/>
+      <c r="X15" s="485"/>
+      <c r="Y15" s="485"/>
+      <c r="Z15" s="485"/>
+      <c r="AA15" s="485"/>
+      <c r="AB15" s="485"/>
+      <c r="AC15" s="485"/>
+      <c r="AD15" s="485"/>
+      <c r="AE15" s="486"/>
+      <c r="AF15" s="481"/>
+      <c r="AG15" s="482"/>
+      <c r="AH15" s="482"/>
+      <c r="AI15" s="483"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="512"/>
-      <c r="C16" s="513"/>
-      <c r="D16" s="514"/>
-      <c r="E16" s="515"/>
-      <c r="F16" s="516"/>
-      <c r="G16" s="512"/>
-      <c r="H16" s="517"/>
-      <c r="I16" s="513"/>
-      <c r="J16" s="518"/>
-      <c r="K16" s="519"/>
-      <c r="L16" s="519"/>
-      <c r="M16" s="519"/>
-      <c r="N16" s="519"/>
-      <c r="O16" s="519"/>
-      <c r="P16" s="520"/>
-      <c r="Q16" s="521"/>
-      <c r="R16" s="522"/>
-      <c r="S16" s="522"/>
-      <c r="T16" s="522"/>
-      <c r="U16" s="522"/>
-      <c r="V16" s="522"/>
-      <c r="W16" s="522"/>
-      <c r="X16" s="522"/>
-      <c r="Y16" s="522"/>
-      <c r="Z16" s="522"/>
-      <c r="AA16" s="522"/>
-      <c r="AB16" s="522"/>
-      <c r="AC16" s="522"/>
-      <c r="AD16" s="522"/>
-      <c r="AE16" s="523"/>
-      <c r="AF16" s="518"/>
-      <c r="AG16" s="519"/>
-      <c r="AH16" s="519"/>
-      <c r="AI16" s="520"/>
+      <c r="B16" s="475"/>
+      <c r="C16" s="476"/>
+      <c r="D16" s="477"/>
+      <c r="E16" s="478"/>
+      <c r="F16" s="479"/>
+      <c r="G16" s="475"/>
+      <c r="H16" s="480"/>
+      <c r="I16" s="476"/>
+      <c r="J16" s="481"/>
+      <c r="K16" s="482"/>
+      <c r="L16" s="482"/>
+      <c r="M16" s="482"/>
+      <c r="N16" s="482"/>
+      <c r="O16" s="482"/>
+      <c r="P16" s="483"/>
+      <c r="Q16" s="484"/>
+      <c r="R16" s="485"/>
+      <c r="S16" s="485"/>
+      <c r="T16" s="485"/>
+      <c r="U16" s="485"/>
+      <c r="V16" s="485"/>
+      <c r="W16" s="485"/>
+      <c r="X16" s="485"/>
+      <c r="Y16" s="485"/>
+      <c r="Z16" s="485"/>
+      <c r="AA16" s="485"/>
+      <c r="AB16" s="485"/>
+      <c r="AC16" s="485"/>
+      <c r="AD16" s="485"/>
+      <c r="AE16" s="486"/>
+      <c r="AF16" s="481"/>
+      <c r="AG16" s="482"/>
+      <c r="AH16" s="482"/>
+      <c r="AI16" s="483"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="512"/>
-      <c r="C17" s="513"/>
-      <c r="D17" s="514"/>
-      <c r="E17" s="515"/>
-      <c r="F17" s="516"/>
-      <c r="G17" s="512"/>
-      <c r="H17" s="517"/>
-      <c r="I17" s="513"/>
-      <c r="J17" s="518"/>
-      <c r="K17" s="519"/>
-      <c r="L17" s="519"/>
-      <c r="M17" s="519"/>
-      <c r="N17" s="519"/>
-      <c r="O17" s="519"/>
-      <c r="P17" s="520"/>
-      <c r="Q17" s="521"/>
-      <c r="R17" s="522"/>
-      <c r="S17" s="522"/>
-      <c r="T17" s="522"/>
-      <c r="U17" s="522"/>
-      <c r="V17" s="522"/>
-      <c r="W17" s="522"/>
-      <c r="X17" s="522"/>
-      <c r="Y17" s="522"/>
-      <c r="Z17" s="522"/>
-      <c r="AA17" s="522"/>
-      <c r="AB17" s="522"/>
-      <c r="AC17" s="522"/>
-      <c r="AD17" s="522"/>
-      <c r="AE17" s="523"/>
-      <c r="AF17" s="518"/>
-      <c r="AG17" s="519"/>
-      <c r="AH17" s="519"/>
-      <c r="AI17" s="520"/>
+      <c r="B17" s="475"/>
+      <c r="C17" s="476"/>
+      <c r="D17" s="477"/>
+      <c r="E17" s="478"/>
+      <c r="F17" s="479"/>
+      <c r="G17" s="475"/>
+      <c r="H17" s="480"/>
+      <c r="I17" s="476"/>
+      <c r="J17" s="481"/>
+      <c r="K17" s="482"/>
+      <c r="L17" s="482"/>
+      <c r="M17" s="482"/>
+      <c r="N17" s="482"/>
+      <c r="O17" s="482"/>
+      <c r="P17" s="483"/>
+      <c r="Q17" s="484"/>
+      <c r="R17" s="485"/>
+      <c r="S17" s="485"/>
+      <c r="T17" s="485"/>
+      <c r="U17" s="485"/>
+      <c r="V17" s="485"/>
+      <c r="W17" s="485"/>
+      <c r="X17" s="485"/>
+      <c r="Y17" s="485"/>
+      <c r="Z17" s="485"/>
+      <c r="AA17" s="485"/>
+      <c r="AB17" s="485"/>
+      <c r="AC17" s="485"/>
+      <c r="AD17" s="485"/>
+      <c r="AE17" s="486"/>
+      <c r="AF17" s="481"/>
+      <c r="AG17" s="482"/>
+      <c r="AH17" s="482"/>
+      <c r="AI17" s="483"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="512"/>
-      <c r="C18" s="513"/>
-      <c r="D18" s="514"/>
-      <c r="E18" s="515"/>
-      <c r="F18" s="516"/>
-      <c r="G18" s="512"/>
-      <c r="H18" s="517"/>
-      <c r="I18" s="513"/>
-      <c r="J18" s="518"/>
-      <c r="K18" s="519"/>
-      <c r="L18" s="519"/>
-      <c r="M18" s="519"/>
-      <c r="N18" s="519"/>
-      <c r="O18" s="519"/>
-      <c r="P18" s="520"/>
-      <c r="Q18" s="521"/>
-      <c r="R18" s="522"/>
-      <c r="S18" s="522"/>
-      <c r="T18" s="522"/>
-      <c r="U18" s="522"/>
-      <c r="V18" s="522"/>
-      <c r="W18" s="522"/>
-      <c r="X18" s="522"/>
-      <c r="Y18" s="522"/>
-      <c r="Z18" s="522"/>
-      <c r="AA18" s="522"/>
-      <c r="AB18" s="522"/>
-      <c r="AC18" s="522"/>
-      <c r="AD18" s="522"/>
-      <c r="AE18" s="523"/>
-      <c r="AF18" s="518"/>
-      <c r="AG18" s="519"/>
-      <c r="AH18" s="519"/>
-      <c r="AI18" s="520"/>
+      <c r="B18" s="475"/>
+      <c r="C18" s="476"/>
+      <c r="D18" s="477"/>
+      <c r="E18" s="478"/>
+      <c r="F18" s="479"/>
+      <c r="G18" s="475"/>
+      <c r="H18" s="480"/>
+      <c r="I18" s="476"/>
+      <c r="J18" s="481"/>
+      <c r="K18" s="482"/>
+      <c r="L18" s="482"/>
+      <c r="M18" s="482"/>
+      <c r="N18" s="482"/>
+      <c r="O18" s="482"/>
+      <c r="P18" s="483"/>
+      <c r="Q18" s="484"/>
+      <c r="R18" s="485"/>
+      <c r="S18" s="485"/>
+      <c r="T18" s="485"/>
+      <c r="U18" s="485"/>
+      <c r="V18" s="485"/>
+      <c r="W18" s="485"/>
+      <c r="X18" s="485"/>
+      <c r="Y18" s="485"/>
+      <c r="Z18" s="485"/>
+      <c r="AA18" s="485"/>
+      <c r="AB18" s="485"/>
+      <c r="AC18" s="485"/>
+      <c r="AD18" s="485"/>
+      <c r="AE18" s="486"/>
+      <c r="AF18" s="481"/>
+      <c r="AG18" s="482"/>
+      <c r="AH18" s="482"/>
+      <c r="AI18" s="483"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="512"/>
-      <c r="C19" s="513"/>
-      <c r="D19" s="514"/>
-      <c r="E19" s="515"/>
-      <c r="F19" s="516"/>
-      <c r="G19" s="512"/>
-      <c r="H19" s="517"/>
-      <c r="I19" s="513"/>
-      <c r="J19" s="518"/>
-      <c r="K19" s="519"/>
-      <c r="L19" s="519"/>
-      <c r="M19" s="519"/>
-      <c r="N19" s="519"/>
-      <c r="O19" s="519"/>
-      <c r="P19" s="520"/>
-      <c r="Q19" s="521"/>
-      <c r="R19" s="522"/>
-      <c r="S19" s="522"/>
-      <c r="T19" s="522"/>
-      <c r="U19" s="522"/>
-      <c r="V19" s="522"/>
-      <c r="W19" s="522"/>
-      <c r="X19" s="522"/>
-      <c r="Y19" s="522"/>
-      <c r="Z19" s="522"/>
-      <c r="AA19" s="522"/>
-      <c r="AB19" s="522"/>
-      <c r="AC19" s="522"/>
-      <c r="AD19" s="522"/>
-      <c r="AE19" s="523"/>
-      <c r="AF19" s="518"/>
-      <c r="AG19" s="519"/>
-      <c r="AH19" s="519"/>
-      <c r="AI19" s="520"/>
+      <c r="B19" s="475"/>
+      <c r="C19" s="476"/>
+      <c r="D19" s="477"/>
+      <c r="E19" s="478"/>
+      <c r="F19" s="479"/>
+      <c r="G19" s="475"/>
+      <c r="H19" s="480"/>
+      <c r="I19" s="476"/>
+      <c r="J19" s="481"/>
+      <c r="K19" s="482"/>
+      <c r="L19" s="482"/>
+      <c r="M19" s="482"/>
+      <c r="N19" s="482"/>
+      <c r="O19" s="482"/>
+      <c r="P19" s="483"/>
+      <c r="Q19" s="484"/>
+      <c r="R19" s="485"/>
+      <c r="S19" s="485"/>
+      <c r="T19" s="485"/>
+      <c r="U19" s="485"/>
+      <c r="V19" s="485"/>
+      <c r="W19" s="485"/>
+      <c r="X19" s="485"/>
+      <c r="Y19" s="485"/>
+      <c r="Z19" s="485"/>
+      <c r="AA19" s="485"/>
+      <c r="AB19" s="485"/>
+      <c r="AC19" s="485"/>
+      <c r="AD19" s="485"/>
+      <c r="AE19" s="486"/>
+      <c r="AF19" s="481"/>
+      <c r="AG19" s="482"/>
+      <c r="AH19" s="482"/>
+      <c r="AI19" s="483"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="512"/>
-      <c r="C20" s="513"/>
-      <c r="D20" s="514"/>
-      <c r="E20" s="515"/>
-      <c r="F20" s="516"/>
-      <c r="G20" s="512"/>
-      <c r="H20" s="517"/>
-      <c r="I20" s="513"/>
-      <c r="J20" s="518"/>
-      <c r="K20" s="519"/>
-      <c r="L20" s="519"/>
-      <c r="M20" s="519"/>
-      <c r="N20" s="519"/>
-      <c r="O20" s="519"/>
-      <c r="P20" s="520"/>
-      <c r="Q20" s="521"/>
-      <c r="R20" s="522"/>
-      <c r="S20" s="522"/>
-      <c r="T20" s="522"/>
-      <c r="U20" s="522"/>
-      <c r="V20" s="522"/>
-      <c r="W20" s="522"/>
-      <c r="X20" s="522"/>
-      <c r="Y20" s="522"/>
-      <c r="Z20" s="522"/>
-      <c r="AA20" s="522"/>
-      <c r="AB20" s="522"/>
-      <c r="AC20" s="522"/>
-      <c r="AD20" s="522"/>
-      <c r="AE20" s="523"/>
-      <c r="AF20" s="518"/>
-      <c r="AG20" s="519"/>
-      <c r="AH20" s="519"/>
-      <c r="AI20" s="520"/>
+      <c r="B20" s="475"/>
+      <c r="C20" s="476"/>
+      <c r="D20" s="477"/>
+      <c r="E20" s="478"/>
+      <c r="F20" s="479"/>
+      <c r="G20" s="475"/>
+      <c r="H20" s="480"/>
+      <c r="I20" s="476"/>
+      <c r="J20" s="481"/>
+      <c r="K20" s="482"/>
+      <c r="L20" s="482"/>
+      <c r="M20" s="482"/>
+      <c r="N20" s="482"/>
+      <c r="O20" s="482"/>
+      <c r="P20" s="483"/>
+      <c r="Q20" s="484"/>
+      <c r="R20" s="485"/>
+      <c r="S20" s="485"/>
+      <c r="T20" s="485"/>
+      <c r="U20" s="485"/>
+      <c r="V20" s="485"/>
+      <c r="W20" s="485"/>
+      <c r="X20" s="485"/>
+      <c r="Y20" s="485"/>
+      <c r="Z20" s="485"/>
+      <c r="AA20" s="485"/>
+      <c r="AB20" s="485"/>
+      <c r="AC20" s="485"/>
+      <c r="AD20" s="485"/>
+      <c r="AE20" s="486"/>
+      <c r="AF20" s="481"/>
+      <c r="AG20" s="482"/>
+      <c r="AH20" s="482"/>
+      <c r="AI20" s="483"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="512"/>
-      <c r="C21" s="513"/>
-      <c r="D21" s="514"/>
-      <c r="E21" s="515"/>
-      <c r="F21" s="516"/>
-      <c r="G21" s="512"/>
-      <c r="H21" s="517"/>
-      <c r="I21" s="513"/>
-      <c r="J21" s="518"/>
-      <c r="K21" s="519"/>
-      <c r="L21" s="519"/>
-      <c r="M21" s="519"/>
-      <c r="N21" s="519"/>
-      <c r="O21" s="519"/>
-      <c r="P21" s="520"/>
-      <c r="Q21" s="521"/>
-      <c r="R21" s="522"/>
-      <c r="S21" s="522"/>
-      <c r="T21" s="522"/>
-      <c r="U21" s="522"/>
-      <c r="V21" s="522"/>
-      <c r="W21" s="522"/>
-      <c r="X21" s="522"/>
-      <c r="Y21" s="522"/>
-      <c r="Z21" s="522"/>
-      <c r="AA21" s="522"/>
-      <c r="AB21" s="522"/>
-      <c r="AC21" s="522"/>
-      <c r="AD21" s="522"/>
-      <c r="AE21" s="523"/>
-      <c r="AF21" s="518"/>
-      <c r="AG21" s="519"/>
-      <c r="AH21" s="519"/>
-      <c r="AI21" s="520"/>
+      <c r="B21" s="475"/>
+      <c r="C21" s="476"/>
+      <c r="D21" s="477"/>
+      <c r="E21" s="478"/>
+      <c r="F21" s="479"/>
+      <c r="G21" s="475"/>
+      <c r="H21" s="480"/>
+      <c r="I21" s="476"/>
+      <c r="J21" s="481"/>
+      <c r="K21" s="482"/>
+      <c r="L21" s="482"/>
+      <c r="M21" s="482"/>
+      <c r="N21" s="482"/>
+      <c r="O21" s="482"/>
+      <c r="P21" s="483"/>
+      <c r="Q21" s="484"/>
+      <c r="R21" s="485"/>
+      <c r="S21" s="485"/>
+      <c r="T21" s="485"/>
+      <c r="U21" s="485"/>
+      <c r="V21" s="485"/>
+      <c r="W21" s="485"/>
+      <c r="X21" s="485"/>
+      <c r="Y21" s="485"/>
+      <c r="Z21" s="485"/>
+      <c r="AA21" s="485"/>
+      <c r="AB21" s="485"/>
+      <c r="AC21" s="485"/>
+      <c r="AD21" s="485"/>
+      <c r="AE21" s="486"/>
+      <c r="AF21" s="481"/>
+      <c r="AG21" s="482"/>
+      <c r="AH21" s="482"/>
+      <c r="AI21" s="483"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="512"/>
-      <c r="C22" s="513"/>
-      <c r="D22" s="514"/>
-      <c r="E22" s="515"/>
-      <c r="F22" s="516"/>
-      <c r="G22" s="512"/>
-      <c r="H22" s="517"/>
-      <c r="I22" s="513"/>
-      <c r="J22" s="518"/>
-      <c r="K22" s="519"/>
-      <c r="L22" s="519"/>
-      <c r="M22" s="519"/>
-      <c r="N22" s="519"/>
-      <c r="O22" s="519"/>
-      <c r="P22" s="520"/>
-      <c r="Q22" s="521"/>
-      <c r="R22" s="522"/>
-      <c r="S22" s="522"/>
-      <c r="T22" s="522"/>
-      <c r="U22" s="522"/>
-      <c r="V22" s="522"/>
-      <c r="W22" s="522"/>
-      <c r="X22" s="522"/>
-      <c r="Y22" s="522"/>
-      <c r="Z22" s="522"/>
-      <c r="AA22" s="522"/>
-      <c r="AB22" s="522"/>
-      <c r="AC22" s="522"/>
-      <c r="AD22" s="522"/>
-      <c r="AE22" s="523"/>
-      <c r="AF22" s="518"/>
-      <c r="AG22" s="519"/>
-      <c r="AH22" s="519"/>
-      <c r="AI22" s="520"/>
+      <c r="B22" s="475"/>
+      <c r="C22" s="476"/>
+      <c r="D22" s="477"/>
+      <c r="E22" s="478"/>
+      <c r="F22" s="479"/>
+      <c r="G22" s="475"/>
+      <c r="H22" s="480"/>
+      <c r="I22" s="476"/>
+      <c r="J22" s="481"/>
+      <c r="K22" s="482"/>
+      <c r="L22" s="482"/>
+      <c r="M22" s="482"/>
+      <c r="N22" s="482"/>
+      <c r="O22" s="482"/>
+      <c r="P22" s="483"/>
+      <c r="Q22" s="484"/>
+      <c r="R22" s="485"/>
+      <c r="S22" s="485"/>
+      <c r="T22" s="485"/>
+      <c r="U22" s="485"/>
+      <c r="V22" s="485"/>
+      <c r="W22" s="485"/>
+      <c r="X22" s="485"/>
+      <c r="Y22" s="485"/>
+      <c r="Z22" s="485"/>
+      <c r="AA22" s="485"/>
+      <c r="AB22" s="485"/>
+      <c r="AC22" s="485"/>
+      <c r="AD22" s="485"/>
+      <c r="AE22" s="486"/>
+      <c r="AF22" s="481"/>
+      <c r="AG22" s="482"/>
+      <c r="AH22" s="482"/>
+      <c r="AI22" s="483"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="512"/>
-      <c r="C23" s="513"/>
-      <c r="D23" s="514"/>
-      <c r="E23" s="515"/>
-      <c r="F23" s="516"/>
-      <c r="G23" s="512"/>
-      <c r="H23" s="517"/>
-      <c r="I23" s="513"/>
-      <c r="J23" s="518"/>
-      <c r="K23" s="519"/>
-      <c r="L23" s="519"/>
-      <c r="M23" s="519"/>
-      <c r="N23" s="519"/>
-      <c r="O23" s="519"/>
-      <c r="P23" s="520"/>
-      <c r="Q23" s="521"/>
-      <c r="R23" s="522"/>
-      <c r="S23" s="522"/>
-      <c r="T23" s="522"/>
-      <c r="U23" s="522"/>
-      <c r="V23" s="522"/>
-      <c r="W23" s="522"/>
-      <c r="X23" s="522"/>
-      <c r="Y23" s="522"/>
-      <c r="Z23" s="522"/>
-      <c r="AA23" s="522"/>
-      <c r="AB23" s="522"/>
-      <c r="AC23" s="522"/>
-      <c r="AD23" s="522"/>
-      <c r="AE23" s="523"/>
-      <c r="AF23" s="518"/>
-      <c r="AG23" s="519"/>
-      <c r="AH23" s="519"/>
-      <c r="AI23" s="520"/>
+      <c r="B23" s="475"/>
+      <c r="C23" s="476"/>
+      <c r="D23" s="477"/>
+      <c r="E23" s="478"/>
+      <c r="F23" s="479"/>
+      <c r="G23" s="475"/>
+      <c r="H23" s="480"/>
+      <c r="I23" s="476"/>
+      <c r="J23" s="481"/>
+      <c r="K23" s="482"/>
+      <c r="L23" s="482"/>
+      <c r="M23" s="482"/>
+      <c r="N23" s="482"/>
+      <c r="O23" s="482"/>
+      <c r="P23" s="483"/>
+      <c r="Q23" s="484"/>
+      <c r="R23" s="485"/>
+      <c r="S23" s="485"/>
+      <c r="T23" s="485"/>
+      <c r="U23" s="485"/>
+      <c r="V23" s="485"/>
+      <c r="W23" s="485"/>
+      <c r="X23" s="485"/>
+      <c r="Y23" s="485"/>
+      <c r="Z23" s="485"/>
+      <c r="AA23" s="485"/>
+      <c r="AB23" s="485"/>
+      <c r="AC23" s="485"/>
+      <c r="AD23" s="485"/>
+      <c r="AE23" s="486"/>
+      <c r="AF23" s="481"/>
+      <c r="AG23" s="482"/>
+      <c r="AH23" s="482"/>
+      <c r="AI23" s="483"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="512"/>
-      <c r="C24" s="513"/>
-      <c r="D24" s="514"/>
-      <c r="E24" s="515"/>
-      <c r="F24" s="516"/>
-      <c r="G24" s="512"/>
-      <c r="H24" s="517"/>
-      <c r="I24" s="513"/>
-      <c r="J24" s="518"/>
-      <c r="K24" s="519"/>
-      <c r="L24" s="519"/>
-      <c r="M24" s="519"/>
-      <c r="N24" s="519"/>
-      <c r="O24" s="519"/>
-      <c r="P24" s="520"/>
-      <c r="Q24" s="521"/>
-      <c r="R24" s="522"/>
-      <c r="S24" s="522"/>
-      <c r="T24" s="522"/>
-      <c r="U24" s="522"/>
-      <c r="V24" s="522"/>
-      <c r="W24" s="522"/>
-      <c r="X24" s="522"/>
-      <c r="Y24" s="522"/>
-      <c r="Z24" s="522"/>
-      <c r="AA24" s="522"/>
-      <c r="AB24" s="522"/>
-      <c r="AC24" s="522"/>
-      <c r="AD24" s="522"/>
-      <c r="AE24" s="523"/>
-      <c r="AF24" s="518"/>
-      <c r="AG24" s="519"/>
-      <c r="AH24" s="519"/>
-      <c r="AI24" s="520"/>
+      <c r="B24" s="475"/>
+      <c r="C24" s="476"/>
+      <c r="D24" s="477"/>
+      <c r="E24" s="478"/>
+      <c r="F24" s="479"/>
+      <c r="G24" s="475"/>
+      <c r="H24" s="480"/>
+      <c r="I24" s="476"/>
+      <c r="J24" s="481"/>
+      <c r="K24" s="482"/>
+      <c r="L24" s="482"/>
+      <c r="M24" s="482"/>
+      <c r="N24" s="482"/>
+      <c r="O24" s="482"/>
+      <c r="P24" s="483"/>
+      <c r="Q24" s="484"/>
+      <c r="R24" s="485"/>
+      <c r="S24" s="485"/>
+      <c r="T24" s="485"/>
+      <c r="U24" s="485"/>
+      <c r="V24" s="485"/>
+      <c r="W24" s="485"/>
+      <c r="X24" s="485"/>
+      <c r="Y24" s="485"/>
+      <c r="Z24" s="485"/>
+      <c r="AA24" s="485"/>
+      <c r="AB24" s="485"/>
+      <c r="AC24" s="485"/>
+      <c r="AD24" s="485"/>
+      <c r="AE24" s="486"/>
+      <c r="AF24" s="481"/>
+      <c r="AG24" s="482"/>
+      <c r="AH24" s="482"/>
+      <c r="AI24" s="483"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="512"/>
-      <c r="C25" s="513"/>
-      <c r="D25" s="514"/>
-      <c r="E25" s="515"/>
-      <c r="F25" s="516"/>
-      <c r="G25" s="512"/>
-      <c r="H25" s="517"/>
-      <c r="I25" s="513"/>
-      <c r="J25" s="518"/>
-      <c r="K25" s="519"/>
-      <c r="L25" s="519"/>
-      <c r="M25" s="519"/>
-      <c r="N25" s="519"/>
-      <c r="O25" s="519"/>
-      <c r="P25" s="520"/>
-      <c r="Q25" s="521"/>
-      <c r="R25" s="522"/>
-      <c r="S25" s="522"/>
-      <c r="T25" s="522"/>
-      <c r="U25" s="522"/>
-      <c r="V25" s="522"/>
-      <c r="W25" s="522"/>
-      <c r="X25" s="522"/>
-      <c r="Y25" s="522"/>
-      <c r="Z25" s="522"/>
-      <c r="AA25" s="522"/>
-      <c r="AB25" s="522"/>
-      <c r="AC25" s="522"/>
-      <c r="AD25" s="522"/>
-      <c r="AE25" s="523"/>
-      <c r="AF25" s="518"/>
-      <c r="AG25" s="519"/>
-      <c r="AH25" s="519"/>
-      <c r="AI25" s="520"/>
+      <c r="B25" s="475"/>
+      <c r="C25" s="476"/>
+      <c r="D25" s="477"/>
+      <c r="E25" s="478"/>
+      <c r="F25" s="479"/>
+      <c r="G25" s="475"/>
+      <c r="H25" s="480"/>
+      <c r="I25" s="476"/>
+      <c r="J25" s="481"/>
+      <c r="K25" s="482"/>
+      <c r="L25" s="482"/>
+      <c r="M25" s="482"/>
+      <c r="N25" s="482"/>
+      <c r="O25" s="482"/>
+      <c r="P25" s="483"/>
+      <c r="Q25" s="484"/>
+      <c r="R25" s="485"/>
+      <c r="S25" s="485"/>
+      <c r="T25" s="485"/>
+      <c r="U25" s="485"/>
+      <c r="V25" s="485"/>
+      <c r="W25" s="485"/>
+      <c r="X25" s="485"/>
+      <c r="Y25" s="485"/>
+      <c r="Z25" s="485"/>
+      <c r="AA25" s="485"/>
+      <c r="AB25" s="485"/>
+      <c r="AC25" s="485"/>
+      <c r="AD25" s="485"/>
+      <c r="AE25" s="486"/>
+      <c r="AF25" s="481"/>
+      <c r="AG25" s="482"/>
+      <c r="AH25" s="482"/>
+      <c r="AI25" s="483"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="512"/>
-      <c r="C26" s="513"/>
-      <c r="D26" s="514"/>
-      <c r="E26" s="515"/>
-      <c r="F26" s="516"/>
-      <c r="G26" s="512"/>
-      <c r="H26" s="517"/>
-      <c r="I26" s="513"/>
-      <c r="J26" s="518"/>
-      <c r="K26" s="519"/>
-      <c r="L26" s="519"/>
-      <c r="M26" s="519"/>
-      <c r="N26" s="519"/>
-      <c r="O26" s="519"/>
-      <c r="P26" s="520"/>
-      <c r="Q26" s="521"/>
-      <c r="R26" s="522"/>
-      <c r="S26" s="522"/>
-      <c r="T26" s="522"/>
-      <c r="U26" s="522"/>
-      <c r="V26" s="522"/>
-      <c r="W26" s="522"/>
-      <c r="X26" s="522"/>
-      <c r="Y26" s="522"/>
-      <c r="Z26" s="522"/>
-      <c r="AA26" s="522"/>
-      <c r="AB26" s="522"/>
-      <c r="AC26" s="522"/>
-      <c r="AD26" s="522"/>
-      <c r="AE26" s="523"/>
-      <c r="AF26" s="518"/>
-      <c r="AG26" s="519"/>
-      <c r="AH26" s="519"/>
-      <c r="AI26" s="520"/>
+      <c r="B26" s="475"/>
+      <c r="C26" s="476"/>
+      <c r="D26" s="477"/>
+      <c r="E26" s="478"/>
+      <c r="F26" s="479"/>
+      <c r="G26" s="475"/>
+      <c r="H26" s="480"/>
+      <c r="I26" s="476"/>
+      <c r="J26" s="481"/>
+      <c r="K26" s="482"/>
+      <c r="L26" s="482"/>
+      <c r="M26" s="482"/>
+      <c r="N26" s="482"/>
+      <c r="O26" s="482"/>
+      <c r="P26" s="483"/>
+      <c r="Q26" s="484"/>
+      <c r="R26" s="485"/>
+      <c r="S26" s="485"/>
+      <c r="T26" s="485"/>
+      <c r="U26" s="485"/>
+      <c r="V26" s="485"/>
+      <c r="W26" s="485"/>
+      <c r="X26" s="485"/>
+      <c r="Y26" s="485"/>
+      <c r="Z26" s="485"/>
+      <c r="AA26" s="485"/>
+      <c r="AB26" s="485"/>
+      <c r="AC26" s="485"/>
+      <c r="AD26" s="485"/>
+      <c r="AE26" s="486"/>
+      <c r="AF26" s="481"/>
+      <c r="AG26" s="482"/>
+      <c r="AH26" s="482"/>
+      <c r="AI26" s="483"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="512"/>
-      <c r="C27" s="513"/>
-      <c r="D27" s="514"/>
-      <c r="E27" s="515"/>
-      <c r="F27" s="516"/>
-      <c r="G27" s="512"/>
-      <c r="H27" s="517"/>
-      <c r="I27" s="513"/>
-      <c r="J27" s="518"/>
-      <c r="K27" s="519"/>
-      <c r="L27" s="519"/>
-      <c r="M27" s="519"/>
-      <c r="N27" s="519"/>
-      <c r="O27" s="519"/>
-      <c r="P27" s="520"/>
-      <c r="Q27" s="521"/>
-      <c r="R27" s="522"/>
-      <c r="S27" s="522"/>
-      <c r="T27" s="522"/>
-      <c r="U27" s="522"/>
-      <c r="V27" s="522"/>
-      <c r="W27" s="522"/>
-      <c r="X27" s="522"/>
-      <c r="Y27" s="522"/>
-      <c r="Z27" s="522"/>
-      <c r="AA27" s="522"/>
-      <c r="AB27" s="522"/>
-      <c r="AC27" s="522"/>
-      <c r="AD27" s="522"/>
-      <c r="AE27" s="523"/>
-      <c r="AF27" s="518"/>
-      <c r="AG27" s="519"/>
-      <c r="AH27" s="519"/>
-      <c r="AI27" s="520"/>
+      <c r="B27" s="475"/>
+      <c r="C27" s="476"/>
+      <c r="D27" s="477"/>
+      <c r="E27" s="478"/>
+      <c r="F27" s="479"/>
+      <c r="G27" s="475"/>
+      <c r="H27" s="480"/>
+      <c r="I27" s="476"/>
+      <c r="J27" s="481"/>
+      <c r="K27" s="482"/>
+      <c r="L27" s="482"/>
+      <c r="M27" s="482"/>
+      <c r="N27" s="482"/>
+      <c r="O27" s="482"/>
+      <c r="P27" s="483"/>
+      <c r="Q27" s="484"/>
+      <c r="R27" s="485"/>
+      <c r="S27" s="485"/>
+      <c r="T27" s="485"/>
+      <c r="U27" s="485"/>
+      <c r="V27" s="485"/>
+      <c r="W27" s="485"/>
+      <c r="X27" s="485"/>
+      <c r="Y27" s="485"/>
+      <c r="Z27" s="485"/>
+      <c r="AA27" s="485"/>
+      <c r="AB27" s="485"/>
+      <c r="AC27" s="485"/>
+      <c r="AD27" s="485"/>
+      <c r="AE27" s="486"/>
+      <c r="AF27" s="481"/>
+      <c r="AG27" s="482"/>
+      <c r="AH27" s="482"/>
+      <c r="AI27" s="483"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="512"/>
-      <c r="C28" s="513"/>
-      <c r="D28" s="514"/>
-      <c r="E28" s="515"/>
-      <c r="F28" s="516"/>
-      <c r="G28" s="512"/>
-      <c r="H28" s="517"/>
-      <c r="I28" s="513"/>
-      <c r="J28" s="518"/>
-      <c r="K28" s="519"/>
-      <c r="L28" s="519"/>
-      <c r="M28" s="519"/>
-      <c r="N28" s="519"/>
-      <c r="O28" s="519"/>
-      <c r="P28" s="520"/>
-      <c r="Q28" s="521"/>
-      <c r="R28" s="522"/>
-      <c r="S28" s="522"/>
-      <c r="T28" s="522"/>
-      <c r="U28" s="522"/>
-      <c r="V28" s="522"/>
-      <c r="W28" s="522"/>
-      <c r="X28" s="522"/>
-      <c r="Y28" s="522"/>
-      <c r="Z28" s="522"/>
-      <c r="AA28" s="522"/>
-      <c r="AB28" s="522"/>
-      <c r="AC28" s="522"/>
-      <c r="AD28" s="522"/>
-      <c r="AE28" s="523"/>
-      <c r="AF28" s="518"/>
-      <c r="AG28" s="519"/>
-      <c r="AH28" s="519"/>
-      <c r="AI28" s="520"/>
+      <c r="B28" s="475"/>
+      <c r="C28" s="476"/>
+      <c r="D28" s="477"/>
+      <c r="E28" s="478"/>
+      <c r="F28" s="479"/>
+      <c r="G28" s="475"/>
+      <c r="H28" s="480"/>
+      <c r="I28" s="476"/>
+      <c r="J28" s="481"/>
+      <c r="K28" s="482"/>
+      <c r="L28" s="482"/>
+      <c r="M28" s="482"/>
+      <c r="N28" s="482"/>
+      <c r="O28" s="482"/>
+      <c r="P28" s="483"/>
+      <c r="Q28" s="484"/>
+      <c r="R28" s="485"/>
+      <c r="S28" s="485"/>
+      <c r="T28" s="485"/>
+      <c r="U28" s="485"/>
+      <c r="V28" s="485"/>
+      <c r="W28" s="485"/>
+      <c r="X28" s="485"/>
+      <c r="Y28" s="485"/>
+      <c r="Z28" s="485"/>
+      <c r="AA28" s="485"/>
+      <c r="AB28" s="485"/>
+      <c r="AC28" s="485"/>
+      <c r="AD28" s="485"/>
+      <c r="AE28" s="486"/>
+      <c r="AF28" s="481"/>
+      <c r="AG28" s="482"/>
+      <c r="AH28" s="482"/>
+      <c r="AI28" s="483"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="512"/>
-      <c r="C29" s="513"/>
-      <c r="D29" s="514"/>
-      <c r="E29" s="515"/>
-      <c r="F29" s="516"/>
-      <c r="G29" s="512"/>
-      <c r="H29" s="517"/>
-      <c r="I29" s="513"/>
-      <c r="J29" s="518"/>
-      <c r="K29" s="519"/>
-      <c r="L29" s="519"/>
-      <c r="M29" s="519"/>
-      <c r="N29" s="519"/>
-      <c r="O29" s="519"/>
-      <c r="P29" s="520"/>
-      <c r="Q29" s="521"/>
-      <c r="R29" s="522"/>
-      <c r="S29" s="522"/>
-      <c r="T29" s="522"/>
-      <c r="U29" s="522"/>
-      <c r="V29" s="522"/>
-      <c r="W29" s="522"/>
-      <c r="X29" s="522"/>
-      <c r="Y29" s="522"/>
-      <c r="Z29" s="522"/>
-      <c r="AA29" s="522"/>
-      <c r="AB29" s="522"/>
-      <c r="AC29" s="522"/>
-      <c r="AD29" s="522"/>
-      <c r="AE29" s="523"/>
-      <c r="AF29" s="518"/>
-      <c r="AG29" s="519"/>
-      <c r="AH29" s="519"/>
-      <c r="AI29" s="520"/>
+      <c r="B29" s="475"/>
+      <c r="C29" s="476"/>
+      <c r="D29" s="477"/>
+      <c r="E29" s="478"/>
+      <c r="F29" s="479"/>
+      <c r="G29" s="475"/>
+      <c r="H29" s="480"/>
+      <c r="I29" s="476"/>
+      <c r="J29" s="481"/>
+      <c r="K29" s="482"/>
+      <c r="L29" s="482"/>
+      <c r="M29" s="482"/>
+      <c r="N29" s="482"/>
+      <c r="O29" s="482"/>
+      <c r="P29" s="483"/>
+      <c r="Q29" s="484"/>
+      <c r="R29" s="485"/>
+      <c r="S29" s="485"/>
+      <c r="T29" s="485"/>
+      <c r="U29" s="485"/>
+      <c r="V29" s="485"/>
+      <c r="W29" s="485"/>
+      <c r="X29" s="485"/>
+      <c r="Y29" s="485"/>
+      <c r="Z29" s="485"/>
+      <c r="AA29" s="485"/>
+      <c r="AB29" s="485"/>
+      <c r="AC29" s="485"/>
+      <c r="AD29" s="485"/>
+      <c r="AE29" s="486"/>
+      <c r="AF29" s="481"/>
+      <c r="AG29" s="482"/>
+      <c r="AH29" s="482"/>
+      <c r="AI29" s="483"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="512"/>
-      <c r="C30" s="513"/>
-      <c r="D30" s="514"/>
-      <c r="E30" s="515"/>
-      <c r="F30" s="516"/>
-      <c r="G30" s="512"/>
-      <c r="H30" s="517"/>
-      <c r="I30" s="513"/>
-      <c r="J30" s="518"/>
-      <c r="K30" s="519"/>
-      <c r="L30" s="519"/>
-      <c r="M30" s="519"/>
-      <c r="N30" s="519"/>
-      <c r="O30" s="519"/>
-      <c r="P30" s="520"/>
-      <c r="Q30" s="521"/>
-      <c r="R30" s="522"/>
-      <c r="S30" s="522"/>
-      <c r="T30" s="522"/>
-      <c r="U30" s="522"/>
-      <c r="V30" s="522"/>
-      <c r="W30" s="522"/>
-      <c r="X30" s="522"/>
-      <c r="Y30" s="522"/>
-      <c r="Z30" s="522"/>
-      <c r="AA30" s="522"/>
-      <c r="AB30" s="522"/>
-      <c r="AC30" s="522"/>
-      <c r="AD30" s="522"/>
-      <c r="AE30" s="523"/>
-      <c r="AF30" s="518"/>
-      <c r="AG30" s="519"/>
-      <c r="AH30" s="519"/>
-      <c r="AI30" s="520"/>
+      <c r="B30" s="475"/>
+      <c r="C30" s="476"/>
+      <c r="D30" s="477"/>
+      <c r="E30" s="478"/>
+      <c r="F30" s="479"/>
+      <c r="G30" s="475"/>
+      <c r="H30" s="480"/>
+      <c r="I30" s="476"/>
+      <c r="J30" s="481"/>
+      <c r="K30" s="482"/>
+      <c r="L30" s="482"/>
+      <c r="M30" s="482"/>
+      <c r="N30" s="482"/>
+      <c r="O30" s="482"/>
+      <c r="P30" s="483"/>
+      <c r="Q30" s="484"/>
+      <c r="R30" s="485"/>
+      <c r="S30" s="485"/>
+      <c r="T30" s="485"/>
+      <c r="U30" s="485"/>
+      <c r="V30" s="485"/>
+      <c r="W30" s="485"/>
+      <c r="X30" s="485"/>
+      <c r="Y30" s="485"/>
+      <c r="Z30" s="485"/>
+      <c r="AA30" s="485"/>
+      <c r="AB30" s="485"/>
+      <c r="AC30" s="485"/>
+      <c r="AD30" s="485"/>
+      <c r="AE30" s="486"/>
+      <c r="AF30" s="481"/>
+      <c r="AG30" s="482"/>
+      <c r="AH30" s="482"/>
+      <c r="AI30" s="483"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="512"/>
-      <c r="C31" s="513"/>
-      <c r="D31" s="514"/>
-      <c r="E31" s="515"/>
-      <c r="F31" s="516"/>
-      <c r="G31" s="512"/>
-      <c r="H31" s="517"/>
-      <c r="I31" s="513"/>
-      <c r="J31" s="518"/>
-      <c r="K31" s="519"/>
-      <c r="L31" s="519"/>
-      <c r="M31" s="519"/>
-      <c r="N31" s="519"/>
-      <c r="O31" s="519"/>
-      <c r="P31" s="520"/>
-      <c r="Q31" s="521"/>
-      <c r="R31" s="522"/>
-      <c r="S31" s="522"/>
-      <c r="T31" s="522"/>
-      <c r="U31" s="522"/>
-      <c r="V31" s="522"/>
-      <c r="W31" s="522"/>
-      <c r="X31" s="522"/>
-      <c r="Y31" s="522"/>
-      <c r="Z31" s="522"/>
-      <c r="AA31" s="522"/>
-      <c r="AB31" s="522"/>
-      <c r="AC31" s="522"/>
-      <c r="AD31" s="522"/>
-      <c r="AE31" s="523"/>
-      <c r="AF31" s="518"/>
-      <c r="AG31" s="519"/>
-      <c r="AH31" s="519"/>
-      <c r="AI31" s="520"/>
+      <c r="B31" s="475"/>
+      <c r="C31" s="476"/>
+      <c r="D31" s="477"/>
+      <c r="E31" s="478"/>
+      <c r="F31" s="479"/>
+      <c r="G31" s="475"/>
+      <c r="H31" s="480"/>
+      <c r="I31" s="476"/>
+      <c r="J31" s="481"/>
+      <c r="K31" s="482"/>
+      <c r="L31" s="482"/>
+      <c r="M31" s="482"/>
+      <c r="N31" s="482"/>
+      <c r="O31" s="482"/>
+      <c r="P31" s="483"/>
+      <c r="Q31" s="484"/>
+      <c r="R31" s="485"/>
+      <c r="S31" s="485"/>
+      <c r="T31" s="485"/>
+      <c r="U31" s="485"/>
+      <c r="V31" s="485"/>
+      <c r="W31" s="485"/>
+      <c r="X31" s="485"/>
+      <c r="Y31" s="485"/>
+      <c r="Z31" s="485"/>
+      <c r="AA31" s="485"/>
+      <c r="AB31" s="485"/>
+      <c r="AC31" s="485"/>
+      <c r="AD31" s="485"/>
+      <c r="AE31" s="486"/>
+      <c r="AF31" s="481"/>
+      <c r="AG31" s="482"/>
+      <c r="AH31" s="482"/>
+      <c r="AI31" s="483"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="512"/>
-      <c r="C32" s="513"/>
-      <c r="D32" s="514"/>
-      <c r="E32" s="515"/>
-      <c r="F32" s="516"/>
-      <c r="G32" s="512"/>
-      <c r="H32" s="517"/>
-      <c r="I32" s="513"/>
-      <c r="J32" s="518"/>
-      <c r="K32" s="537"/>
-      <c r="L32" s="519"/>
-      <c r="M32" s="519"/>
-      <c r="N32" s="519"/>
-      <c r="O32" s="519"/>
-      <c r="P32" s="520"/>
-      <c r="Q32" s="521"/>
-      <c r="R32" s="522"/>
-      <c r="S32" s="522"/>
-      <c r="T32" s="522"/>
-      <c r="U32" s="522"/>
-      <c r="V32" s="522"/>
-      <c r="W32" s="522"/>
-      <c r="X32" s="522"/>
-      <c r="Y32" s="522"/>
-      <c r="Z32" s="522"/>
-      <c r="AA32" s="522"/>
-      <c r="AB32" s="522"/>
-      <c r="AC32" s="522"/>
-      <c r="AD32" s="522"/>
-      <c r="AE32" s="523"/>
-      <c r="AF32" s="518"/>
-      <c r="AG32" s="519"/>
-      <c r="AH32" s="519"/>
-      <c r="AI32" s="520"/>
+      <c r="B32" s="475"/>
+      <c r="C32" s="476"/>
+      <c r="D32" s="477"/>
+      <c r="E32" s="478"/>
+      <c r="F32" s="479"/>
+      <c r="G32" s="475"/>
+      <c r="H32" s="480"/>
+      <c r="I32" s="476"/>
+      <c r="J32" s="481"/>
+      <c r="K32" s="487"/>
+      <c r="L32" s="482"/>
+      <c r="M32" s="482"/>
+      <c r="N32" s="482"/>
+      <c r="O32" s="482"/>
+      <c r="P32" s="483"/>
+      <c r="Q32" s="484"/>
+      <c r="R32" s="485"/>
+      <c r="S32" s="485"/>
+      <c r="T32" s="485"/>
+      <c r="U32" s="485"/>
+      <c r="V32" s="485"/>
+      <c r="W32" s="485"/>
+      <c r="X32" s="485"/>
+      <c r="Y32" s="485"/>
+      <c r="Z32" s="485"/>
+      <c r="AA32" s="485"/>
+      <c r="AB32" s="485"/>
+      <c r="AC32" s="485"/>
+      <c r="AD32" s="485"/>
+      <c r="AE32" s="486"/>
+      <c r="AF32" s="481"/>
+      <c r="AG32" s="482"/>
+      <c r="AH32" s="482"/>
+      <c r="AI32" s="483"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="512"/>
-      <c r="C33" s="513"/>
-      <c r="D33" s="514"/>
-      <c r="E33" s="515"/>
-      <c r="F33" s="516"/>
-      <c r="G33" s="512"/>
-      <c r="H33" s="517"/>
-      <c r="I33" s="513"/>
-      <c r="J33" s="518"/>
-      <c r="K33" s="519"/>
-      <c r="L33" s="519"/>
-      <c r="M33" s="519"/>
-      <c r="N33" s="519"/>
-      <c r="O33" s="519"/>
-      <c r="P33" s="520"/>
-      <c r="Q33" s="521"/>
-      <c r="R33" s="522"/>
-      <c r="S33" s="522"/>
-      <c r="T33" s="522"/>
-      <c r="U33" s="522"/>
-      <c r="V33" s="522"/>
-      <c r="W33" s="522"/>
-      <c r="X33" s="522"/>
-      <c r="Y33" s="522"/>
-      <c r="Z33" s="522"/>
-      <c r="AA33" s="522"/>
-      <c r="AB33" s="522"/>
-      <c r="AC33" s="522"/>
-      <c r="AD33" s="522"/>
-      <c r="AE33" s="523"/>
-      <c r="AF33" s="518"/>
-      <c r="AG33" s="519"/>
-      <c r="AH33" s="519"/>
-      <c r="AI33" s="520"/>
-    </row>
-    <row r="34" spans="1:35" ht="14">
+      <c r="B33" s="475"/>
+      <c r="C33" s="476"/>
+      <c r="D33" s="477"/>
+      <c r="E33" s="478"/>
+      <c r="F33" s="479"/>
+      <c r="G33" s="475"/>
+      <c r="H33" s="480"/>
+      <c r="I33" s="476"/>
+      <c r="J33" s="481"/>
+      <c r="K33" s="482"/>
+      <c r="L33" s="482"/>
+      <c r="M33" s="482"/>
+      <c r="N33" s="482"/>
+      <c r="O33" s="482"/>
+      <c r="P33" s="483"/>
+      <c r="Q33" s="484"/>
+      <c r="R33" s="485"/>
+      <c r="S33" s="485"/>
+      <c r="T33" s="485"/>
+      <c r="U33" s="485"/>
+      <c r="V33" s="485"/>
+      <c r="W33" s="485"/>
+      <c r="X33" s="485"/>
+      <c r="Y33" s="485"/>
+      <c r="Z33" s="485"/>
+      <c r="AA33" s="485"/>
+      <c r="AB33" s="485"/>
+      <c r="AC33" s="485"/>
+      <c r="AD33" s="485"/>
+      <c r="AE33" s="486"/>
+      <c r="AF33" s="481"/>
+      <c r="AG33" s="482"/>
+      <c r="AH33" s="482"/>
+      <c r="AI33" s="483"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8218,6 +7764,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8233,24 +7935,22 @@
   </sheetPr>
   <dimension ref="A1:R129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="179" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="179" customWidth="1"/>
     <col min="2" max="2" width="9" style="179"/>
     <col min="3" max="3" width="14.25" style="179" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="180" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="179" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="49" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.58203125" style="50" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="23.33203125" style="179" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="30.58203125" style="179" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="180" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="179" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="49" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="50" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="23.375" style="179" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="30.625" style="179" customWidth="1"/>
     <col min="11" max="11" width="17.25" style="179" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="179" customWidth="1"/>
-    <col min="13" max="15" width="8.58203125" style="179" customWidth="1"/>
+    <col min="13" max="15" width="8.625" style="179" customWidth="1"/>
     <col min="16" max="16384" width="9" style="179"/>
   </cols>
   <sheetData>
@@ -8261,7 +7961,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="179" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -8276,7 +7976,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="179" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I6" s="179" t="s">
         <v>152</v>
@@ -8296,7 +7996,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="181" t="s">
         <v>132</v>
       </c>
@@ -8318,7 +8018,7 @@
       <c r="Q8" s="181"/>
       <c r="R8" s="181"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickTop="1">
+    <row r="9" spans="1:18" ht="12.75" thickTop="1">
       <c r="F9" s="25"/>
       <c r="G9" s="52"/>
     </row>
@@ -8448,7 +8148,7 @@
       <c r="Q12" s="223"/>
       <c r="R12" s="226"/>
     </row>
-    <row r="13" spans="1:18" s="209" customFormat="1" ht="34.5">
+    <row r="13" spans="1:18" s="209" customFormat="1" ht="36">
       <c r="A13" s="191" t="s">
         <v>143</v>
       </c>
@@ -8457,7 +8157,7 @@
         <v>144</v>
       </c>
       <c r="D13" s="198" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E13" s="198" t="s">
         <v>145</v>
@@ -8468,7 +8168,7 @@
         <v>167</v>
       </c>
       <c r="I13" s="228" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J13" s="220" t="s">
         <v>173</v>
@@ -8490,7 +8190,7 @@
       <c r="C14" s="199"/>
       <c r="D14" s="200"/>
       <c r="E14" s="201" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="74"/>
@@ -8512,7 +8212,7 @@
       <c r="Q14" s="240"/>
       <c r="R14" s="234"/>
     </row>
-    <row r="15" spans="1:18" s="209" customFormat="1" ht="46">
+    <row r="15" spans="1:18" s="209" customFormat="1" ht="48">
       <c r="A15" s="191" t="s">
         <v>147</v>
       </c>
@@ -8520,7 +8220,7 @@
       <c r="C15" s="199"/>
       <c r="D15" s="200"/>
       <c r="E15" s="201" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="74"/>
@@ -8528,7 +8228,7 @@
         <v>167</v>
       </c>
       <c r="I15" s="242" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J15" s="220" t="s">
         <v>173</v>
@@ -8542,7 +8242,7 @@
       <c r="Q15" s="247"/>
       <c r="R15" s="234"/>
     </row>
-    <row r="16" spans="1:18" s="209" customFormat="1" ht="57.5">
+    <row r="16" spans="1:18" s="209" customFormat="1" ht="60">
       <c r="A16" s="191" t="s">
         <v>148</v>
       </c>
@@ -8550,7 +8250,7 @@
       <c r="C16" s="199"/>
       <c r="D16" s="200"/>
       <c r="E16" s="201" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="74"/>
@@ -8558,7 +8258,7 @@
         <v>167</v>
       </c>
       <c r="I16" s="242" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J16" s="220" t="s">
         <v>173</v>
@@ -8602,14 +8302,14 @@
       <c r="Q17" s="223"/>
       <c r="R17" s="226"/>
     </row>
-    <row r="18" spans="1:18" s="209" customFormat="1" ht="34.5">
+    <row r="18" spans="1:18" s="209" customFormat="1" ht="36">
       <c r="A18" s="202" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="192"/>
       <c r="C18" s="200"/>
       <c r="D18" s="193" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E18" s="204"/>
       <c r="F18" s="67"/>
@@ -8632,7 +8332,7 @@
       <c r="Q18" s="223"/>
       <c r="R18" s="226"/>
     </row>
-    <row r="19" spans="1:18" s="29" customFormat="1" ht="22" hidden="1">
+    <row r="19" spans="1:18" s="29" customFormat="1" ht="22.5" hidden="1">
       <c r="A19" s="56" t="s">
         <v>2</v>
       </c>
@@ -8666,7 +8366,7 @@
       <c r="Q19" s="36"/>
       <c r="R19" s="70"/>
     </row>
-    <row r="20" spans="1:18" s="29" customFormat="1" ht="11" hidden="1">
+    <row r="20" spans="1:18" s="29" customFormat="1" ht="11.25" hidden="1">
       <c r="A20" s="56" t="s">
         <v>9</v>
       </c>
@@ -8698,7 +8398,7 @@
       <c r="Q20" s="143"/>
       <c r="R20" s="70"/>
     </row>
-    <row r="21" spans="1:18" s="29" customFormat="1" ht="11" hidden="1">
+    <row r="21" spans="1:18" s="29" customFormat="1" ht="11.25" hidden="1">
       <c r="A21" s="56" t="s">
         <v>15</v>
       </c>
@@ -8730,7 +8430,7 @@
       <c r="Q21" s="84"/>
       <c r="R21" s="87"/>
     </row>
-    <row r="22" spans="1:18" s="29" customFormat="1" ht="11" hidden="1">
+    <row r="22" spans="1:18" s="29" customFormat="1" ht="11.25" hidden="1">
       <c r="A22" s="57" t="s">
         <v>21</v>
       </c>
@@ -8802,7 +8502,7 @@
       <c r="C24" s="203"/>
       <c r="D24" s="254"/>
       <c r="E24" s="253" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="80"/>
@@ -8922,7 +8622,7 @@
       <c r="C28" s="200"/>
       <c r="D28" s="200"/>
       <c r="E28" s="255" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F28" s="88"/>
       <c r="G28" s="89"/>
@@ -8952,7 +8652,7 @@
       <c r="C29" s="200"/>
       <c r="D29" s="257"/>
       <c r="E29" s="257" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F29" s="90"/>
       <c r="G29" s="91"/>
@@ -8974,7 +8674,7 @@
       <c r="Q29" s="308"/>
       <c r="R29" s="311"/>
     </row>
-    <row r="30" spans="1:18" ht="23">
+    <row r="30" spans="1:18" ht="24">
       <c r="A30" s="202" t="s">
         <v>189</v>
       </c>
@@ -9021,13 +8721,13 @@
       <c r="F31" s="90"/>
       <c r="G31" s="91"/>
       <c r="H31" s="313" t="s">
+        <v>264</v>
+      </c>
+      <c r="I31" s="314" t="s">
         <v>265</v>
       </c>
-      <c r="I31" s="314" t="s">
+      <c r="J31" s="314" t="s">
         <v>266</v>
-      </c>
-      <c r="J31" s="314" t="s">
-        <v>267</v>
       </c>
       <c r="K31" s="314"/>
       <c r="L31" s="315"/>
@@ -9046,18 +8746,18 @@
       <c r="C32" s="199"/>
       <c r="D32" s="260"/>
       <c r="E32" s="259" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F32" s="90"/>
       <c r="G32" s="91"/>
       <c r="H32" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I32" s="314" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J32" s="314" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K32" s="314"/>
       <c r="L32" s="315"/>
@@ -9068,7 +8768,7 @@
       <c r="Q32" s="319"/>
       <c r="R32" s="320"/>
     </row>
-    <row r="33" spans="1:18" s="209" customFormat="1" ht="57.5">
+    <row r="33" spans="1:18" s="209" customFormat="1" ht="60">
       <c r="A33" s="202" t="s">
         <v>196</v>
       </c>
@@ -9081,13 +8781,13 @@
       <c r="F33" s="90"/>
       <c r="G33" s="91"/>
       <c r="H33" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I33" s="314" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J33" s="314" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K33" s="314"/>
       <c r="L33" s="315"/>
@@ -9111,13 +8811,13 @@
       <c r="F34" s="90"/>
       <c r="G34" s="91"/>
       <c r="H34" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I34" s="314" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J34" s="314" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K34" s="314"/>
       <c r="L34" s="315"/>
@@ -9141,13 +8841,13 @@
       <c r="F35" s="90"/>
       <c r="G35" s="91"/>
       <c r="H35" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I35" s="314" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J35" s="314" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K35" s="314"/>
       <c r="L35" s="321"/>
@@ -9171,13 +8871,13 @@
       <c r="F36" s="90"/>
       <c r="G36" s="91"/>
       <c r="H36" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I36" s="314" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J36" s="314" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K36" s="314"/>
       <c r="L36" s="321"/>
@@ -9204,10 +8904,10 @@
         <v>167</v>
       </c>
       <c r="I37" s="314" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J37" s="314" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K37" s="314"/>
       <c r="L37" s="321"/>
@@ -9234,10 +8934,10 @@
         <v>167</v>
       </c>
       <c r="I38" s="314" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J38" s="314" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K38" s="314"/>
       <c r="L38" s="321"/>
@@ -9264,10 +8964,10 @@
         <v>167</v>
       </c>
       <c r="I39" s="314" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J39" s="314" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K39" s="314"/>
       <c r="L39" s="321"/>
@@ -9288,18 +8988,18 @@
         <v>211</v>
       </c>
       <c r="E40" s="259" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F40" s="90"/>
       <c r="G40" s="91"/>
       <c r="H40" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I40" s="314" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J40" s="314" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K40" s="314"/>
       <c r="L40" s="321"/>
@@ -9310,7 +9010,7 @@
       <c r="Q40" s="321"/>
       <c r="R40" s="322"/>
     </row>
-    <row r="41" spans="1:18" ht="57.5">
+    <row r="41" spans="1:18" ht="60">
       <c r="A41" s="262" t="s">
         <v>212</v>
       </c>
@@ -9323,13 +9023,13 @@
       <c r="F41" s="90"/>
       <c r="G41" s="91"/>
       <c r="H41" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I41" s="314" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J41" s="314" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K41" s="314"/>
       <c r="L41" s="321"/>
@@ -9353,13 +9053,13 @@
       <c r="F42" s="90"/>
       <c r="G42" s="91"/>
       <c r="H42" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I42" s="314" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J42" s="314" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K42" s="314"/>
       <c r="L42" s="321"/>
@@ -9383,13 +9083,13 @@
       <c r="F43" s="90"/>
       <c r="G43" s="91"/>
       <c r="H43" s="313" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I43" s="314" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J43" s="314" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K43" s="314"/>
       <c r="L43" s="321"/>
@@ -9408,7 +9108,7 @@
       <c r="C44" s="199"/>
       <c r="D44" s="260"/>
       <c r="E44" s="264" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F44" s="90"/>
       <c r="G44" s="91"/>
@@ -9419,7 +9119,7 @@
         <v>174</v>
       </c>
       <c r="J44" s="314" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K44" s="325"/>
       <c r="L44" s="326"/>
@@ -9430,7 +9130,7 @@
       <c r="Q44" s="326"/>
       <c r="R44" s="322"/>
     </row>
-    <row r="45" spans="1:18" ht="23">
+    <row r="45" spans="1:18" ht="24">
       <c r="A45" s="262" t="s">
         <v>216</v>
       </c>
@@ -9445,13 +9145,13 @@
       <c r="F45" s="92"/>
       <c r="G45" s="93"/>
       <c r="H45" s="329" t="s">
+        <v>271</v>
+      </c>
+      <c r="I45" s="330" t="s">
         <v>272</v>
       </c>
-      <c r="I45" s="330" t="s">
+      <c r="J45" s="330" t="s">
         <v>273</v>
-      </c>
-      <c r="J45" s="330" t="s">
-        <v>274</v>
       </c>
       <c r="K45" s="330"/>
       <c r="L45" s="331"/>
@@ -9462,7 +9162,7 @@
       <c r="Q45" s="331"/>
       <c r="R45" s="334"/>
     </row>
-    <row r="46" spans="1:18" ht="23">
+    <row r="46" spans="1:18" ht="24">
       <c r="A46" s="262" t="s">
         <v>219</v>
       </c>
@@ -9475,13 +9175,13 @@
       <c r="F46" s="94"/>
       <c r="G46" s="95"/>
       <c r="H46" s="335" t="s">
+        <v>271</v>
+      </c>
+      <c r="I46" s="336" t="s">
         <v>272</v>
       </c>
-      <c r="I46" s="336" t="s">
+      <c r="J46" s="330" t="s">
         <v>273</v>
-      </c>
-      <c r="J46" s="330" t="s">
-        <v>274</v>
       </c>
       <c r="K46" s="336"/>
       <c r="L46" s="337"/>
@@ -9492,7 +9192,7 @@
       <c r="Q46" s="337"/>
       <c r="R46" s="340"/>
     </row>
-    <row r="47" spans="1:18" ht="23">
+    <row r="47" spans="1:18" ht="24">
       <c r="A47" s="262" t="s">
         <v>221</v>
       </c>
@@ -9511,7 +9211,7 @@
         <v>176</v>
       </c>
       <c r="J47" s="330" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K47" s="342"/>
       <c r="L47" s="343"/>
@@ -9522,7 +9222,7 @@
       <c r="Q47" s="343"/>
       <c r="R47" s="346"/>
     </row>
-    <row r="48" spans="1:18" ht="23">
+    <row r="48" spans="1:18" ht="24">
       <c r="A48" s="262" t="s">
         <v>223</v>
       </c>
@@ -9541,7 +9241,7 @@
         <v>176</v>
       </c>
       <c r="J48" s="330" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K48" s="348"/>
       <c r="L48" s="349"/>
@@ -9552,7 +9252,7 @@
       <c r="Q48" s="349"/>
       <c r="R48" s="352"/>
     </row>
-    <row r="49" spans="1:18" ht="34.5">
+    <row r="49" spans="1:18" ht="36">
       <c r="A49" s="262" t="s">
         <v>225</v>
       </c>
@@ -9571,7 +9271,7 @@
         <v>176</v>
       </c>
       <c r="J49" s="330" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K49" s="354"/>
       <c r="L49" s="355"/>
@@ -9582,7 +9282,7 @@
       <c r="Q49" s="355"/>
       <c r="R49" s="358"/>
     </row>
-    <row r="50" spans="1:18" ht="23">
+    <row r="50" spans="1:18" ht="24">
       <c r="A50" s="262" t="s">
         <v>227</v>
       </c>
@@ -9601,7 +9301,7 @@
         <v>176</v>
       </c>
       <c r="J50" s="330" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K50" s="360"/>
       <c r="L50" s="361"/>
@@ -9612,7 +9312,7 @@
       <c r="Q50" s="361"/>
       <c r="R50" s="364"/>
     </row>
-    <row r="51" spans="1:18" ht="23">
+    <row r="51" spans="1:18" ht="24">
       <c r="A51" s="262" t="s">
         <v>229</v>
       </c>
@@ -9631,7 +9331,7 @@
         <v>176</v>
       </c>
       <c r="J51" s="330" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K51" s="366"/>
       <c r="L51" s="367"/>
@@ -9642,7 +9342,7 @@
       <c r="Q51" s="367"/>
       <c r="R51" s="370"/>
     </row>
-    <row r="52" spans="1:18" ht="23">
+    <row r="52" spans="1:18" ht="24">
       <c r="A52" s="262" t="s">
         <v>231</v>
       </c>
@@ -9661,7 +9361,7 @@
         <v>176</v>
       </c>
       <c r="J52" s="330" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K52" s="372"/>
       <c r="L52" s="373"/>
@@ -9672,7 +9372,7 @@
       <c r="Q52" s="373"/>
       <c r="R52" s="376"/>
     </row>
-    <row r="53" spans="1:18" ht="23">
+    <row r="53" spans="1:18" ht="24">
       <c r="A53" s="262" t="s">
         <v>233</v>
       </c>
@@ -9691,7 +9391,7 @@
         <v>176</v>
       </c>
       <c r="J53" s="330" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K53" s="378"/>
       <c r="L53" s="379"/>
@@ -9702,7 +9402,7 @@
       <c r="Q53" s="379"/>
       <c r="R53" s="382"/>
     </row>
-    <row r="54" spans="1:18" s="209" customFormat="1" ht="46">
+    <row r="54" spans="1:18" s="209" customFormat="1" ht="48">
       <c r="A54" s="276" t="s">
         <v>89</v>
       </c>
@@ -9713,24 +9413,24 @@
         <v>236</v>
       </c>
       <c r="D54" s="278" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E54" s="279" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="58"/>
       <c r="G54" s="59"/>
       <c r="H54" s="383" t="s">
+        <v>274</v>
+      </c>
+      <c r="I54" s="277" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" s="384" t="s">
         <v>275</v>
       </c>
-      <c r="I54" s="277" t="s">
-        <v>237</v>
-      </c>
-      <c r="J54" s="384" t="s">
+      <c r="K54" s="384" t="s">
         <v>276</v>
-      </c>
-      <c r="K54" s="384" t="s">
-        <v>277</v>
       </c>
       <c r="L54" s="385"/>
       <c r="M54" s="386"/>
@@ -9746,29 +9446,29 @@
       <c r="Q54" s="214"/>
       <c r="R54" s="387"/>
     </row>
-    <row r="55" spans="1:18" s="209" customFormat="1" ht="34.5">
+    <row r="55" spans="1:18" s="209" customFormat="1" ht="36">
       <c r="A55" s="276" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B55" s="277"/>
       <c r="C55" s="277"/>
       <c r="D55" s="277"/>
       <c r="E55" s="280" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F55" s="108"/>
       <c r="G55" s="109"/>
       <c r="H55" s="383" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I55" s="383" t="s">
+        <v>277</v>
+      </c>
+      <c r="J55" s="388" t="s">
         <v>278</v>
       </c>
-      <c r="J55" s="388" t="s">
+      <c r="K55" s="384" t="s">
         <v>279</v>
-      </c>
-      <c r="K55" s="384" t="s">
-        <v>280</v>
       </c>
       <c r="L55" s="212"/>
       <c r="M55" s="213"/>
@@ -9784,29 +9484,29 @@
       <c r="Q55" s="217"/>
       <c r="R55" s="389"/>
     </row>
-    <row r="56" spans="1:18" s="209" customFormat="1" ht="23">
+    <row r="56" spans="1:18" s="209" customFormat="1" ht="24">
       <c r="A56" s="276" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="277"/>
       <c r="C56" s="277"/>
       <c r="D56" s="277"/>
       <c r="E56" s="280" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F56" s="108"/>
       <c r="G56" s="109"/>
       <c r="H56" s="383" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I56" s="383" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J56" s="384" t="s">
+        <v>280</v>
+      </c>
+      <c r="K56" s="384" t="s">
         <v>281</v>
-      </c>
-      <c r="K56" s="384" t="s">
-        <v>282</v>
       </c>
       <c r="L56" s="212"/>
       <c r="M56" s="213"/>
@@ -9822,29 +9522,29 @@
       <c r="Q56" s="217"/>
       <c r="R56" s="389"/>
     </row>
-    <row r="57" spans="1:18" s="392" customFormat="1" ht="46">
+    <row r="57" spans="1:18" s="392" customFormat="1" ht="48">
       <c r="A57" s="276" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" s="277"/>
       <c r="C57" s="277"/>
       <c r="D57" s="277"/>
       <c r="E57" s="280" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F57" s="60"/>
       <c r="G57" s="61"/>
       <c r="H57" s="383" t="s">
+        <v>274</v>
+      </c>
+      <c r="I57" s="383" t="s">
+        <v>384</v>
+      </c>
+      <c r="J57" s="388" t="s">
         <v>275</v>
       </c>
-      <c r="I57" s="383" t="s">
-        <v>237</v>
-      </c>
-      <c r="J57" s="388" t="s">
-        <v>276</v>
-      </c>
       <c r="K57" s="388" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L57" s="212"/>
       <c r="M57" s="213"/>
@@ -9860,29 +9560,29 @@
       <c r="Q57" s="217"/>
       <c r="R57" s="389"/>
     </row>
-    <row r="58" spans="1:18" s="392" customFormat="1" ht="34.5">
+    <row r="58" spans="1:18" s="392" customFormat="1" ht="36">
       <c r="A58" s="276" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B58" s="277"/>
       <c r="C58" s="277"/>
       <c r="D58" s="281"/>
       <c r="E58" s="280" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F58" s="108"/>
       <c r="G58" s="109"/>
       <c r="H58" s="383" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I58" s="383" t="s">
+        <v>277</v>
+      </c>
+      <c r="J58" s="388" t="s">
         <v>278</v>
       </c>
-      <c r="J58" s="388" t="s">
+      <c r="K58" s="384" t="s">
         <v>279</v>
-      </c>
-      <c r="K58" s="384" t="s">
-        <v>280</v>
       </c>
       <c r="L58" s="212"/>
       <c r="M58" s="213"/>
@@ -9898,28 +9598,28 @@
       <c r="Q58" s="217"/>
       <c r="R58" s="389"/>
     </row>
-    <row r="59" spans="1:18" s="209" customFormat="1" ht="23">
+    <row r="59" spans="1:18" s="209" customFormat="1" ht="24">
       <c r="A59" s="262" t="s">
         <v>96</v>
       </c>
       <c r="B59" s="200"/>
       <c r="C59" s="200"/>
       <c r="D59" s="282" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" s="283" t="s">
         <v>247</v>
-      </c>
-      <c r="E59" s="283" t="s">
-        <v>248</v>
       </c>
       <c r="F59" s="111"/>
       <c r="G59" s="112"/>
       <c r="H59" s="393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I59" s="393" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J59" s="394" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K59" s="284"/>
       <c r="L59" s="221"/>
@@ -9930,26 +9630,26 @@
       <c r="Q59" s="223"/>
       <c r="R59" s="395"/>
     </row>
-    <row r="60" spans="1:18" s="209" customFormat="1" ht="23">
+    <row r="60" spans="1:18" s="209" customFormat="1" ht="24">
       <c r="A60" s="262" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B60" s="200"/>
       <c r="C60" s="200"/>
       <c r="D60" s="200"/>
       <c r="E60" s="284" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F60" s="111"/>
       <c r="G60" s="112"/>
       <c r="H60" s="393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I60" s="393" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J60" s="394" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K60" s="284"/>
       <c r="L60" s="221"/>
@@ -9960,26 +9660,26 @@
       <c r="Q60" s="223"/>
       <c r="R60" s="395"/>
     </row>
-    <row r="61" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="61" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="262" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B61" s="200"/>
       <c r="C61" s="200"/>
       <c r="D61" s="257"/>
       <c r="E61" s="284" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="63"/>
       <c r="H61" s="393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I61" s="393" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="J61" s="394" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K61" s="284"/>
       <c r="L61" s="221"/>
@@ -9990,31 +9690,31 @@
       <c r="Q61" s="223"/>
       <c r="R61" s="395"/>
     </row>
-    <row r="62" spans="1:18" s="209" customFormat="1" ht="23">
+    <row r="62" spans="1:18" s="209" customFormat="1" ht="24">
       <c r="A62" s="276" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B62" s="277"/>
       <c r="C62" s="277"/>
       <c r="D62" s="285" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="286" t="s">
         <v>254</v>
-      </c>
-      <c r="E62" s="286" t="s">
-        <v>255</v>
       </c>
       <c r="F62" s="111"/>
       <c r="G62" s="112"/>
       <c r="H62" s="396" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I62" s="396" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="J62" s="397" t="s">
+        <v>284</v>
+      </c>
+      <c r="K62" s="397" t="s">
         <v>285</v>
-      </c>
-      <c r="K62" s="397" t="s">
-        <v>286</v>
       </c>
       <c r="L62" s="212"/>
       <c r="M62" s="213"/>
@@ -10030,29 +9730,29 @@
       <c r="Q62" s="217"/>
       <c r="R62" s="398"/>
     </row>
-    <row r="63" spans="1:18" s="209" customFormat="1" ht="34.5">
+    <row r="63" spans="1:18" s="209" customFormat="1" ht="36">
       <c r="A63" s="276" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B63" s="277"/>
       <c r="C63" s="277"/>
       <c r="D63" s="281"/>
       <c r="E63" s="286" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F63" s="111"/>
       <c r="G63" s="112"/>
       <c r="H63" s="396" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I63" s="396" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="J63" s="397" t="s">
+        <v>286</v>
+      </c>
+      <c r="K63" s="397" t="s">
         <v>287</v>
-      </c>
-      <c r="K63" s="397" t="s">
-        <v>288</v>
       </c>
       <c r="L63" s="212"/>
       <c r="M63" s="213"/>
@@ -10068,17 +9768,17 @@
       <c r="Q63" s="217"/>
       <c r="R63" s="398"/>
     </row>
-    <row r="64" spans="1:18" s="209" customFormat="1" ht="34.5">
+    <row r="64" spans="1:18" s="209" customFormat="1" ht="36">
       <c r="A64" s="262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" s="200"/>
       <c r="C64" s="200"/>
       <c r="D64" s="287" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" s="284" t="s">
         <v>259</v>
-      </c>
-      <c r="E64" s="284" t="s">
-        <v>260</v>
       </c>
       <c r="F64" s="111"/>
       <c r="G64" s="112"/>
@@ -10086,10 +9786,10 @@
         <v>167</v>
       </c>
       <c r="I64" s="393" t="s">
+        <v>288</v>
+      </c>
+      <c r="J64" s="284" t="s">
         <v>289</v>
-      </c>
-      <c r="J64" s="284" t="s">
-        <v>290</v>
       </c>
       <c r="K64" s="284"/>
       <c r="L64" s="221"/>
@@ -10100,15 +9800,15 @@
       <c r="Q64" s="223"/>
       <c r="R64" s="395"/>
     </row>
-    <row r="65" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="65" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B65" s="200"/>
       <c r="C65" s="200"/>
       <c r="D65" s="200"/>
       <c r="E65" s="284" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F65" s="111"/>
       <c r="G65" s="112"/>
@@ -10116,10 +9816,10 @@
         <v>167</v>
       </c>
       <c r="I65" s="393" t="s">
+        <v>288</v>
+      </c>
+      <c r="J65" s="284" t="s">
         <v>289</v>
-      </c>
-      <c r="J65" s="284" t="s">
-        <v>290</v>
       </c>
       <c r="K65" s="284"/>
       <c r="L65" s="221"/>
@@ -10130,15 +9830,15 @@
       <c r="Q65" s="223"/>
       <c r="R65" s="395"/>
     </row>
-    <row r="66" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="66" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="262" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B66" s="200"/>
       <c r="C66" s="200"/>
       <c r="D66" s="200"/>
       <c r="E66" s="284" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F66" s="111"/>
       <c r="G66" s="112"/>
@@ -10146,10 +9846,10 @@
         <v>167</v>
       </c>
       <c r="I66" s="393" t="s">
+        <v>288</v>
+      </c>
+      <c r="J66" s="284" t="s">
         <v>289</v>
-      </c>
-      <c r="J66" s="284" t="s">
-        <v>290</v>
       </c>
       <c r="K66" s="284"/>
       <c r="L66" s="221"/>
@@ -10160,7 +9860,7 @@
       <c r="Q66" s="223"/>
       <c r="R66" s="395"/>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="32" t="s">
         <v>27</v>
       </c>
@@ -10192,15 +9892,15 @@
       <c r="Q67" s="36"/>
       <c r="R67" s="115"/>
     </row>
-    <row r="68" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="68" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="262" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B68" s="200"/>
       <c r="C68" s="200"/>
       <c r="D68" s="200"/>
       <c r="E68" s="284" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F68" s="111"/>
       <c r="G68" s="112"/>
@@ -10208,10 +9908,10 @@
         <v>167</v>
       </c>
       <c r="I68" s="393" t="s">
+        <v>288</v>
+      </c>
+      <c r="J68" s="284" t="s">
         <v>289</v>
-      </c>
-      <c r="J68" s="284" t="s">
-        <v>290</v>
       </c>
       <c r="K68" s="284"/>
       <c r="L68" s="221"/>
@@ -10222,15 +9922,15 @@
       <c r="Q68" s="223"/>
       <c r="R68" s="395"/>
     </row>
-    <row r="69" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="69" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="262" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B69" s="200"/>
       <c r="C69" s="200"/>
       <c r="D69" s="200"/>
       <c r="E69" s="284" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F69" s="111"/>
       <c r="G69" s="112"/>
@@ -10238,10 +9938,10 @@
         <v>167</v>
       </c>
       <c r="I69" s="393" t="s">
+        <v>288</v>
+      </c>
+      <c r="J69" s="284" t="s">
         <v>289</v>
-      </c>
-      <c r="J69" s="284" t="s">
-        <v>290</v>
       </c>
       <c r="K69" s="284"/>
       <c r="L69" s="221"/>
@@ -10252,15 +9952,15 @@
       <c r="Q69" s="223"/>
       <c r="R69" s="395"/>
     </row>
-    <row r="70" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="70" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="262" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B70" s="200"/>
       <c r="C70" s="200"/>
       <c r="D70" s="200"/>
       <c r="E70" s="284" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F70" s="111"/>
       <c r="G70" s="112"/>
@@ -10268,10 +9968,10 @@
         <v>167</v>
       </c>
       <c r="I70" s="393" t="s">
+        <v>288</v>
+      </c>
+      <c r="J70" s="284" t="s">
         <v>289</v>
-      </c>
-      <c r="J70" s="284" t="s">
-        <v>290</v>
       </c>
       <c r="K70" s="284"/>
       <c r="L70" s="221"/>
@@ -10282,15 +9982,15 @@
       <c r="Q70" s="223"/>
       <c r="R70" s="395"/>
     </row>
-    <row r="71" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="71" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="262" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B71" s="200"/>
       <c r="C71" s="200"/>
       <c r="D71" s="257"/>
       <c r="E71" s="284" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F71" s="111"/>
       <c r="G71" s="112"/>
@@ -10298,10 +9998,10 @@
         <v>167</v>
       </c>
       <c r="I71" s="393" t="s">
+        <v>288</v>
+      </c>
+      <c r="J71" s="284" t="s">
         <v>289</v>
-      </c>
-      <c r="J71" s="284" t="s">
-        <v>290</v>
       </c>
       <c r="K71" s="284"/>
       <c r="L71" s="221"/>
@@ -10312,14 +10012,14 @@
       <c r="Q71" s="223"/>
       <c r="R71" s="395"/>
     </row>
-    <row r="72" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="72" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="262" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B72" s="200"/>
       <c r="C72" s="200"/>
       <c r="D72" s="200" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E72" s="284" t="s">
         <v>199</v>
@@ -10330,10 +10030,10 @@
         <v>167</v>
       </c>
       <c r="I72" s="404" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J72" s="284" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K72" s="284"/>
       <c r="L72" s="221"/>
@@ -10344,17 +10044,17 @@
       <c r="Q72" s="223"/>
       <c r="R72" s="395"/>
     </row>
-    <row r="73" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="73" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A73" s="262" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B73" s="200"/>
       <c r="C73" s="200"/>
       <c r="D73" s="287" t="s">
+        <v>301</v>
+      </c>
+      <c r="E73" s="284" t="s">
         <v>302</v>
-      </c>
-      <c r="E73" s="284" t="s">
-        <v>303</v>
       </c>
       <c r="F73" s="111"/>
       <c r="G73" s="112"/>
@@ -10362,10 +10062,10 @@
         <v>167</v>
       </c>
       <c r="I73" s="287" t="s">
+        <v>315</v>
+      </c>
+      <c r="J73" s="284" t="s">
         <v>316</v>
-      </c>
-      <c r="J73" s="284" t="s">
-        <v>317</v>
       </c>
       <c r="K73" s="284"/>
       <c r="L73" s="221"/>
@@ -10378,13 +10078,13 @@
     </row>
     <row r="74" spans="1:18" s="209" customFormat="1">
       <c r="A74" s="262" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B74" s="200"/>
       <c r="C74" s="200"/>
       <c r="D74" s="200"/>
       <c r="E74" s="284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F74" s="111"/>
       <c r="G74" s="112"/>
@@ -10392,10 +10092,10 @@
         <v>167</v>
       </c>
       <c r="I74" s="287" t="s">
+        <v>315</v>
+      </c>
+      <c r="J74" s="284" t="s">
         <v>316</v>
-      </c>
-      <c r="J74" s="284" t="s">
-        <v>317</v>
       </c>
       <c r="K74" s="284"/>
       <c r="L74" s="221"/>
@@ -10408,13 +10108,13 @@
     </row>
     <row r="75" spans="1:18" s="209" customFormat="1">
       <c r="A75" s="262" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B75" s="200"/>
       <c r="C75" s="200"/>
       <c r="D75" s="257"/>
       <c r="E75" s="284" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F75" s="111"/>
       <c r="G75" s="112"/>
@@ -10422,10 +10122,10 @@
         <v>167</v>
       </c>
       <c r="I75" s="287" t="s">
+        <v>315</v>
+      </c>
+      <c r="J75" s="284" t="s">
         <v>316</v>
-      </c>
-      <c r="J75" s="284" t="s">
-        <v>317</v>
       </c>
       <c r="K75" s="284"/>
       <c r="L75" s="221"/>
@@ -10436,17 +10136,17 @@
       <c r="Q75" s="223"/>
       <c r="R75" s="395"/>
     </row>
-    <row r="76" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="76" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A76" s="262" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B76" s="200"/>
       <c r="C76" s="200"/>
       <c r="D76" s="287" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E76" s="284" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F76" s="111"/>
       <c r="G76" s="112"/>
@@ -10454,10 +10154,10 @@
         <v>167</v>
       </c>
       <c r="I76" s="287" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J76" s="284" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K76" s="284"/>
       <c r="L76" s="221"/>
@@ -10470,13 +10170,13 @@
     </row>
     <row r="77" spans="1:18" s="209" customFormat="1">
       <c r="A77" s="262" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B77" s="200"/>
       <c r="C77" s="200"/>
       <c r="D77" s="200"/>
       <c r="E77" s="284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F77" s="111"/>
       <c r="G77" s="112"/>
@@ -10484,10 +10184,10 @@
         <v>167</v>
       </c>
       <c r="I77" s="287" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J77" s="284" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K77" s="284"/>
       <c r="L77" s="221"/>
@@ -10500,13 +10200,13 @@
     </row>
     <row r="78" spans="1:18" s="209" customFormat="1">
       <c r="A78" s="262" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B78" s="200"/>
       <c r="C78" s="200"/>
       <c r="D78" s="257"/>
       <c r="E78" s="399" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F78" s="111"/>
       <c r="G78" s="112"/>
@@ -10514,10 +10214,10 @@
         <v>167</v>
       </c>
       <c r="I78" s="287" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J78" s="284" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K78" s="284"/>
       <c r="L78" s="221"/>
@@ -10528,14 +10228,14 @@
       <c r="Q78" s="223"/>
       <c r="R78" s="395"/>
     </row>
-    <row r="79" spans="1:18" s="209" customFormat="1" ht="34.5">
+    <row r="79" spans="1:18" s="209" customFormat="1" ht="36">
       <c r="A79" s="276" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B79" s="277"/>
       <c r="C79" s="277"/>
       <c r="D79" s="400" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E79" s="401"/>
       <c r="F79" s="175"/>
@@ -10544,13 +10244,13 @@
         <v>167</v>
       </c>
       <c r="I79" s="406" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J79" s="286" t="s">
+        <v>318</v>
+      </c>
+      <c r="K79" s="286" t="s">
         <v>319</v>
-      </c>
-      <c r="K79" s="286" t="s">
-        <v>320</v>
       </c>
       <c r="L79" s="212"/>
       <c r="M79" s="213"/>
@@ -10566,9 +10266,9 @@
       <c r="Q79" s="217"/>
       <c r="R79" s="407"/>
     </row>
-    <row r="80" spans="1:18" s="209" customFormat="1" ht="80.5">
+    <row r="80" spans="1:18" s="209" customFormat="1" ht="84">
       <c r="A80" s="276" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B80" s="277"/>
       <c r="C80" s="277"/>
@@ -10579,10 +10279,10 @@
       <c r="H80" s="277"/>
       <c r="I80" s="277"/>
       <c r="J80" s="286" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K80" s="286" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L80" s="212"/>
       <c r="M80" s="213"/>
@@ -10598,7 +10298,7 @@
       <c r="Q80" s="217"/>
       <c r="R80" s="407"/>
     </row>
-    <row r="81" spans="1:18" s="29" customFormat="1" ht="22" hidden="1">
+    <row r="81" spans="1:18" s="29" customFormat="1" ht="22.5" hidden="1">
       <c r="A81" s="32" t="s">
         <v>33</v>
       </c>
@@ -10632,29 +10332,29 @@
     </row>
     <row r="82" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
       <c r="A82" s="276" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B82" s="277"/>
       <c r="C82" s="285" t="s">
+        <v>322</v>
+      </c>
+      <c r="D82" s="408" t="s">
         <v>323</v>
-      </c>
-      <c r="D82" s="408" t="s">
-        <v>324</v>
       </c>
       <c r="E82" s="409"/>
       <c r="F82" s="64"/>
       <c r="G82" s="65"/>
       <c r="H82" s="285" t="s">
+        <v>335</v>
+      </c>
+      <c r="I82" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="I82" s="285" t="s">
-        <v>337</v>
-      </c>
       <c r="J82" s="286" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K82" s="286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L82" s="415"/>
       <c r="M82" s="416"/>
@@ -10672,29 +10372,29 @@
     </row>
     <row r="83" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
       <c r="A83" s="276" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B83" s="277"/>
       <c r="C83" s="277"/>
       <c r="D83" s="410" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" s="411" t="s">
         <v>326</v>
-      </c>
-      <c r="E83" s="411" t="s">
-        <v>327</v>
       </c>
       <c r="F83" s="64"/>
       <c r="G83" s="65"/>
       <c r="H83" s="285" t="s">
+        <v>335</v>
+      </c>
+      <c r="I83" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="I83" s="285" t="s">
-        <v>337</v>
-      </c>
       <c r="J83" s="286" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K83" s="286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L83" s="415"/>
       <c r="M83" s="416"/>
@@ -10710,26 +10410,26 @@
       <c r="Q83" s="417"/>
       <c r="R83" s="420"/>
     </row>
-    <row r="84" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="84" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A84" s="262" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B84" s="200"/>
       <c r="C84" s="200"/>
       <c r="D84" s="412"/>
       <c r="E84" s="413" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F84" s="118"/>
       <c r="G84" s="119"/>
       <c r="H84" s="287" t="s">
+        <v>335</v>
+      </c>
+      <c r="I84" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="I84" s="287" t="s">
+      <c r="J84" s="284" t="s">
         <v>337</v>
-      </c>
-      <c r="J84" s="284" t="s">
-        <v>338</v>
       </c>
       <c r="K84" s="284"/>
       <c r="L84" s="421"/>
@@ -10742,27 +10442,27 @@
     </row>
     <row r="85" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
       <c r="A85" s="276" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B85" s="277"/>
       <c r="C85" s="277"/>
       <c r="D85" s="410" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E85" s="414"/>
       <c r="F85" s="64"/>
       <c r="G85" s="65"/>
       <c r="H85" s="285" t="s">
+        <v>335</v>
+      </c>
+      <c r="I85" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="I85" s="285" t="s">
-        <v>337</v>
-      </c>
       <c r="J85" s="286" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K85" s="286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L85" s="415"/>
       <c r="M85" s="416"/>
@@ -10780,27 +10480,27 @@
     </row>
     <row r="86" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
       <c r="A86" s="276" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B86" s="277"/>
       <c r="C86" s="277"/>
       <c r="D86" s="410" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E86" s="414"/>
       <c r="F86" s="64"/>
       <c r="G86" s="65"/>
       <c r="H86" s="285" t="s">
+        <v>335</v>
+      </c>
+      <c r="I86" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="I86" s="285" t="s">
-        <v>337</v>
-      </c>
       <c r="J86" s="286" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K86" s="286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L86" s="415"/>
       <c r="M86" s="416"/>
@@ -10818,27 +10518,27 @@
     </row>
     <row r="87" spans="1:18" s="209" customFormat="1" ht="33.75" customHeight="1">
       <c r="A87" s="276" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B87" s="277"/>
       <c r="C87" s="277"/>
       <c r="D87" s="410" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E87" s="414"/>
       <c r="F87" s="64"/>
       <c r="G87" s="65"/>
       <c r="H87" s="285" t="s">
+        <v>335</v>
+      </c>
+      <c r="I87" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="I87" s="285" t="s">
-        <v>337</v>
-      </c>
       <c r="J87" s="286" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K87" s="286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L87" s="415"/>
       <c r="M87" s="416"/>
@@ -10854,7 +10554,7 @@
       <c r="Q87" s="417"/>
       <c r="R87" s="420"/>
     </row>
-    <row r="88" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="88" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="32" t="s">
         <v>39</v>
       </c>
@@ -10886,7 +10586,7 @@
       <c r="Q88" s="122"/>
       <c r="R88" s="125"/>
     </row>
-    <row r="89" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="89" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="32" t="s">
         <v>45</v>
       </c>
@@ -10918,7 +10618,7 @@
       <c r="Q89" s="122"/>
       <c r="R89" s="125"/>
     </row>
-    <row r="90" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="90" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="32" t="s">
         <v>51</v>
       </c>
@@ -10950,7 +10650,7 @@
       <c r="Q90" s="122"/>
       <c r="R90" s="125"/>
     </row>
-    <row r="91" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="91" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="32" t="s">
         <v>57</v>
       </c>
@@ -10982,7 +10682,7 @@
       <c r="Q91" s="122"/>
       <c r="R91" s="125"/>
     </row>
-    <row r="92" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="92" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A92" s="32" t="s">
         <v>63</v>
       </c>
@@ -11014,26 +10714,26 @@
       <c r="Q92" s="122"/>
       <c r="R92" s="125"/>
     </row>
-    <row r="93" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="93" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A93" s="262" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B93" s="200"/>
       <c r="C93" s="200"/>
       <c r="D93" s="412" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E93" s="427"/>
       <c r="F93" s="118"/>
       <c r="G93" s="119"/>
       <c r="H93" s="287" t="s">
+        <v>335</v>
+      </c>
+      <c r="I93" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="I93" s="287" t="s">
-        <v>337</v>
-      </c>
       <c r="J93" s="284" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K93" s="284"/>
       <c r="L93" s="421"/>
@@ -11044,9 +10744,9 @@
       <c r="Q93" s="423"/>
       <c r="R93" s="426"/>
     </row>
-    <row r="94" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="94" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A94" s="262" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B94" s="200"/>
       <c r="C94" s="200"/>
@@ -11057,13 +10757,13 @@
       <c r="F94" s="118"/>
       <c r="G94" s="119"/>
       <c r="H94" s="287" t="s">
+        <v>335</v>
+      </c>
+      <c r="I94" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="I94" s="287" t="s">
-        <v>337</v>
-      </c>
       <c r="J94" s="284" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K94" s="284"/>
       <c r="L94" s="421"/>
@@ -11074,26 +10774,26 @@
       <c r="Q94" s="423"/>
       <c r="R94" s="426"/>
     </row>
-    <row r="95" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="95" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="262" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B95" s="200"/>
       <c r="C95" s="200"/>
       <c r="D95" s="412" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E95" s="427"/>
       <c r="F95" s="118"/>
       <c r="G95" s="119"/>
       <c r="H95" s="287" t="s">
+        <v>335</v>
+      </c>
+      <c r="I95" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="I95" s="287" t="s">
+      <c r="J95" s="284" t="s">
         <v>337</v>
-      </c>
-      <c r="J95" s="284" t="s">
-        <v>338</v>
       </c>
       <c r="K95" s="284"/>
       <c r="L95" s="421"/>
@@ -11104,26 +10804,26 @@
       <c r="Q95" s="423"/>
       <c r="R95" s="426"/>
     </row>
-    <row r="96" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="96" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="262" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B96" s="200"/>
       <c r="C96" s="200"/>
       <c r="D96" s="412" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E96" s="427"/>
       <c r="F96" s="118"/>
       <c r="G96" s="119"/>
       <c r="H96" s="283" t="s">
+        <v>335</v>
+      </c>
+      <c r="I96" s="283" t="s">
         <v>336</v>
       </c>
-      <c r="I96" s="283" t="s">
+      <c r="J96" s="284" t="s">
         <v>337</v>
-      </c>
-      <c r="J96" s="284" t="s">
-        <v>338</v>
       </c>
       <c r="K96" s="428"/>
       <c r="L96" s="221"/>
@@ -11134,26 +10834,26 @@
       <c r="Q96" s="223"/>
       <c r="R96" s="426"/>
     </row>
-    <row r="97" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="97" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A97" s="262" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B97" s="200"/>
       <c r="C97" s="200"/>
       <c r="D97" s="412" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E97" s="427"/>
       <c r="F97" s="118"/>
       <c r="G97" s="119"/>
       <c r="H97" s="287" t="s">
+        <v>335</v>
+      </c>
+      <c r="I97" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="I97" s="287" t="s">
-        <v>337</v>
-      </c>
       <c r="J97" s="284" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K97" s="284"/>
       <c r="L97" s="421"/>
@@ -11164,7 +10864,7 @@
       <c r="Q97" s="423"/>
       <c r="R97" s="426"/>
     </row>
-    <row r="98" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="98" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A98" s="32" t="s">
         <v>69</v>
       </c>
@@ -11196,26 +10896,26 @@
       <c r="Q98" s="36"/>
       <c r="R98" s="125"/>
     </row>
-    <row r="99" spans="1:18" s="209" customFormat="1" ht="23.15" customHeight="1">
+    <row r="99" spans="1:18" s="209" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="262" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B99" s="200"/>
       <c r="C99" s="200"/>
       <c r="D99" s="429" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E99" s="430"/>
       <c r="F99" s="118"/>
       <c r="G99" s="119"/>
       <c r="H99" s="287" t="s">
+        <v>335</v>
+      </c>
+      <c r="I99" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="I99" s="287" t="s">
-        <v>337</v>
-      </c>
       <c r="J99" s="284" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K99" s="284"/>
       <c r="L99" s="421"/>
@@ -11228,24 +10928,24 @@
     </row>
     <row r="100" spans="1:18" s="209" customFormat="1" ht="106.5" customHeight="1">
       <c r="A100" s="262" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B100" s="200"/>
       <c r="C100" s="200"/>
       <c r="D100" s="429" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E100" s="430"/>
       <c r="F100" s="118"/>
       <c r="G100" s="119"/>
       <c r="H100" s="287" t="s">
+        <v>335</v>
+      </c>
+      <c r="I100" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="I100" s="287" t="s">
-        <v>337</v>
-      </c>
       <c r="J100" s="284" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K100" s="284"/>
       <c r="L100" s="421"/>
@@ -11258,24 +10958,24 @@
     </row>
     <row r="101" spans="1:18" s="209" customFormat="1" ht="45" customHeight="1">
       <c r="A101" s="431" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B101" s="200"/>
       <c r="C101" s="200"/>
       <c r="D101" s="432" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E101" s="433"/>
       <c r="F101" s="111"/>
       <c r="G101" s="112"/>
       <c r="H101" s="434" t="s">
+        <v>335</v>
+      </c>
+      <c r="I101" s="434" t="s">
         <v>336</v>
       </c>
-      <c r="I101" s="434" t="s">
-        <v>337</v>
-      </c>
       <c r="J101" s="435" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K101" s="435"/>
       <c r="L101" s="436"/>
@@ -11286,7 +10986,7 @@
       <c r="Q101" s="438"/>
       <c r="R101" s="441"/>
     </row>
-    <row r="102" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="102" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="66" t="s">
         <v>75</v>
       </c>
@@ -11318,7 +11018,7 @@
       <c r="Q102" s="151"/>
       <c r="R102" s="154"/>
     </row>
-    <row r="103" spans="1:18" s="29" customFormat="1" ht="23.15" hidden="1" customHeight="1">
+    <row r="103" spans="1:18" s="29" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>81</v>
       </c>
@@ -11545,22 +11245,20 @@
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="179" customWidth="1"/>
-    <col min="2" max="3" width="10.58203125" style="179" customWidth="1"/>
-    <col min="4" max="5" width="15.58203125" style="180" customWidth="1"/>
-    <col min="6" max="6" width="6.08203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="60.58203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.58203125" style="179" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.58203125" style="179" customWidth="1"/>
-    <col min="10" max="11" width="30.58203125" style="179" customWidth="1"/>
-    <col min="12" max="12" width="20.58203125" style="179" customWidth="1"/>
-    <col min="13" max="16" width="8.58203125" style="179" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="179" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="179" customWidth="1"/>
+    <col min="4" max="5" width="15.625" style="180" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="60.625" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.625" style="179" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.625" style="179" customWidth="1"/>
+    <col min="10" max="11" width="30.625" style="179" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="179" customWidth="1"/>
+    <col min="13" max="16" width="8.625" style="179" customWidth="1"/>
     <col min="17" max="16384" width="9" style="179"/>
   </cols>
   <sheetData>
@@ -11571,7 +11269,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="179" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -11586,7 +11284,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="179" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J6" s="179" t="s">
         <v>152</v>
@@ -11597,7 +11295,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="179" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J7" s="179" t="s">
         <v>154</v>
@@ -11606,7 +11304,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="181"/>
       <c r="B8" s="181"/>
       <c r="C8" s="181"/>
@@ -11626,10 +11324,10 @@
       <c r="Q8" s="181"/>
       <c r="R8" s="181"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickTop="1">
+    <row r="9" spans="1:18" ht="12.75" thickTop="1">
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:18" s="209" customFormat="1" ht="10" customHeight="1">
+    <row r="10" spans="1:18" s="209" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="184" t="s">
         <v>133</v>
       </c>
@@ -11690,28 +11388,28 @@
         <v>138</v>
       </c>
       <c r="B11" s="406" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="406" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="188" t="s">
         <v>404</v>
-      </c>
-      <c r="C11" s="406" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="188" t="s">
-        <v>405</v>
       </c>
       <c r="E11" s="447"/>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="406" t="s">
+        <v>370</v>
+      </c>
+      <c r="I11" s="406" t="s">
         <v>371</v>
       </c>
-      <c r="I11" s="406" t="s">
+      <c r="J11" s="457" t="s">
+        <v>414</v>
+      </c>
+      <c r="K11" s="457" t="s">
         <v>372</v>
-      </c>
-      <c r="J11" s="457" t="s">
-        <v>415</v>
-      </c>
-      <c r="K11" s="457" t="s">
-        <v>373</v>
       </c>
       <c r="L11" s="458"/>
       <c r="M11" s="459"/>
@@ -11734,19 +11432,19 @@
       <c r="B12" s="449"/>
       <c r="C12" s="449"/>
       <c r="D12" s="450" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E12" s="451"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="H12" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I12" s="461" t="s">
+        <v>373</v>
+      </c>
+      <c r="J12" s="462" t="s">
         <v>374</v>
-      </c>
-      <c r="J12" s="462" t="s">
-        <v>375</v>
       </c>
       <c r="K12" s="462"/>
       <c r="L12" s="463"/>
@@ -11764,19 +11462,19 @@
       <c r="B13" s="449"/>
       <c r="C13" s="449"/>
       <c r="D13" s="450" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E13" s="451"/>
       <c r="F13" s="47"/>
       <c r="G13" s="47"/>
       <c r="H13" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I13" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J13" s="462" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K13" s="462"/>
       <c r="L13" s="463"/>
@@ -11794,19 +11492,19 @@
       <c r="B14" s="449"/>
       <c r="C14" s="449"/>
       <c r="D14" s="450" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E14" s="451"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I14" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J14" s="462" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K14" s="462"/>
       <c r="L14" s="463"/>
@@ -11824,21 +11522,21 @@
       <c r="B15" s="449"/>
       <c r="C15" s="449"/>
       <c r="D15" s="452" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E15" s="453" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I15" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J15" s="462" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K15" s="462"/>
       <c r="L15" s="463"/>
@@ -11851,24 +11549,24 @@
     </row>
     <row r="16" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="448" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="449"/>
       <c r="C16" s="449"/>
       <c r="D16" s="449"/>
       <c r="E16" s="404" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
       <c r="H16" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I16" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J16" s="462" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K16" s="462"/>
       <c r="L16" s="463"/>
@@ -11881,24 +11579,24 @@
     </row>
     <row r="17" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="448" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" s="449"/>
       <c r="C17" s="449"/>
       <c r="D17" s="449"/>
       <c r="E17" s="453" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
       <c r="H17" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I17" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J17" s="462" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K17" s="462"/>
       <c r="L17" s="463"/>
@@ -11911,7 +11609,7 @@
     </row>
     <row r="18" spans="1:18" s="209" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="448" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B18" s="449"/>
       <c r="C18" s="449"/>
@@ -11922,13 +11620,13 @@
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
       <c r="H18" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I18" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J18" s="462" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K18" s="462"/>
       <c r="L18" s="463"/>
@@ -11946,21 +11644,21 @@
       <c r="B19" s="449"/>
       <c r="C19" s="449"/>
       <c r="D19" s="453" t="s">
+        <v>366</v>
+      </c>
+      <c r="E19" s="404" t="s">
         <v>367</v>
-      </c>
-      <c r="E19" s="404" t="s">
-        <v>368</v>
       </c>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
       <c r="H19" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I19" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J19" s="462" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K19" s="462"/>
       <c r="L19" s="463"/>
@@ -11978,21 +11676,21 @@
       <c r="B20" s="449"/>
       <c r="C20" s="449"/>
       <c r="D20" s="193" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="404" t="s">
         <v>407</v>
-      </c>
-      <c r="E20" s="404" t="s">
-        <v>408</v>
       </c>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
       <c r="H20" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I20" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J20" s="462" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K20" s="462"/>
       <c r="L20" s="463"/>
@@ -12010,22 +11708,22 @@
       <c r="B21" s="456"/>
       <c r="C21" s="456"/>
       <c r="D21" s="538" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E21" s="539"/>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
       <c r="H21" s="406" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I21" s="406" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J21" s="466" t="s">
+        <v>380</v>
+      </c>
+      <c r="K21" s="466" t="s">
         <v>381</v>
-      </c>
-      <c r="K21" s="466" t="s">
-        <v>382</v>
       </c>
       <c r="L21" s="467"/>
       <c r="M21" s="468"/>
@@ -12050,19 +11748,19 @@
         <v>144</v>
       </c>
       <c r="D22" s="450" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E22" s="451"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I22" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J22" s="462" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K22" s="462"/>
       <c r="L22" s="463"/>
@@ -12080,19 +11778,19 @@
       <c r="B23" s="454"/>
       <c r="C23" s="454"/>
       <c r="D23" s="450" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E23" s="451"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="461" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I23" s="461" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J23" s="462" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K23" s="462"/>
       <c r="L23" s="463"/>
